--- a/Test Data/Salesforce - Test Scenarios_V3.xlsx
+++ b/Test Data/Salesforce - Test Scenarios_V3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AnithaB\git\Saviynt\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71BDC708-E2BE-4591-9BD0-EFB770A53775}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7995C78-2C43-493B-8D62-FF283D69C621}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12420" windowHeight="2080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="360">
   <si>
     <t>SAVIYNT - User Testing Scenario's (Business)</t>
   </si>
@@ -836,24 +836,6 @@
     <t>ROLE 4</t>
   </si>
   <si>
-    <t>TSTTEN01</t>
-  </si>
-  <si>
-    <t>TSTTEN02</t>
-  </si>
-  <si>
-    <t>TSTTLM01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tasks get created - PR5CLNT100, PROCLNT100, RROCLNT100, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tasks get created - WROCLNT100, PR5CLNT100, PROCLNT100, RROCLNT100, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tasks get created - PROCLNT100, RROCLNT100, </t>
-  </si>
-  <si>
     <t>Yes - Accept account, role and assign MC, AND THEN REJECT, CONFIRM</t>
   </si>
   <si>
@@ -861,9 +843,6 @@
   </si>
   <si>
     <t>Add Salesforce Enterprise Role - Creation of new account</t>
-  </si>
-  <si>
-    <t>RGTSU11</t>
   </si>
   <si>
     <t>RGTSR51</t>
@@ -1158,12 +1137,39 @@
   <si>
     <t>Tasks get created to REMOVE -AAA Members,AAA_Admin</t>
   </si>
+  <si>
+    <t>TSTTEN10</t>
+  </si>
+  <si>
+    <t>Tasks get created- PR5CLNT100, PROCLNT100, RROCLNT100</t>
+  </si>
+  <si>
+    <t>Tasks get created - WROCLNT100, PR5CLNT100, PROCLNT100, RROCLNT100</t>
+  </si>
+  <si>
+    <t>Tasks get created - PROCLNT100, RROCLNT100</t>
+  </si>
+  <si>
+    <t>RGTSU31</t>
+  </si>
+  <si>
+    <t>Permission</t>
+  </si>
+  <si>
+    <t>RGTSU36</t>
+  </si>
+  <si>
+    <t>RGTSU37</t>
+  </si>
+  <si>
+    <t>RGTSU45</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1664,7 +1670,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1779,9 +1785,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1954,26 +1957,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="13" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2397,13 +2390,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG32"/>
+  <dimension ref="A1:AG34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.7265625" customWidth="1"/>
     <col min="2" max="2" width="14.81640625" bestFit="1" customWidth="1"/>
@@ -2425,14 +2418,14 @@
     <col min="24" max="33" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="15" thickBot="1">
+    <row r="1" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="130"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="127"/>
       <c r="F1" s="38"/>
       <c r="G1" s="25"/>
       <c r="H1" s="25"/>
@@ -2462,7 +2455,7 @@
       <c r="AF1" s="2"/>
       <c r="AG1" s="2"/>
     </row>
-    <row r="2" spans="1:33" ht="15" thickBot="1">
+    <row r="2" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="6"/>
       <c r="C2" s="5"/>
@@ -2485,19 +2478,19 @@
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
       <c r="V2" s="4"/>
-      <c r="W2" s="131"/>
-      <c r="X2" s="132"/>
-      <c r="Y2" s="132"/>
-      <c r="Z2" s="132"/>
-      <c r="AA2" s="132"/>
-      <c r="AB2" s="132"/>
-      <c r="AC2" s="132"/>
-      <c r="AD2" s="132"/>
-      <c r="AE2" s="133"/>
+      <c r="W2" s="128"/>
+      <c r="X2" s="129"/>
+      <c r="Y2" s="129"/>
+      <c r="Z2" s="129"/>
+      <c r="AA2" s="129"/>
+      <c r="AB2" s="129"/>
+      <c r="AC2" s="129"/>
+      <c r="AD2" s="129"/>
+      <c r="AE2" s="130"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
     </row>
-    <row r="3" spans="1:33" ht="33" thickBot="1">
+    <row r="3" spans="1:33" ht="33" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="9"/>
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
@@ -2505,23 +2498,23 @@
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="26"/>
-      <c r="H3" s="134" t="s">
+      <c r="H3" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="135"/>
-      <c r="M3" s="136"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="132"/>
+      <c r="K3" s="132"/>
+      <c r="L3" s="132"/>
+      <c r="M3" s="133"/>
       <c r="N3" s="34"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="137" t="s">
+      <c r="O3" s="39"/>
+      <c r="P3" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="138"/>
-      <c r="R3" s="138"/>
-      <c r="S3" s="138"/>
-      <c r="T3" s="139" t="s">
+      <c r="Q3" s="135"/>
+      <c r="R3" s="135"/>
+      <c r="S3" s="135"/>
+      <c r="T3" s="136" t="s">
         <v>3</v>
       </c>
       <c r="U3" s="37"/>
@@ -2531,15 +2524,15 @@
       <c r="W3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="X3" s="140" t="s">
+      <c r="X3" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="Y3" s="141"/>
-      <c r="Z3" s="141"/>
-      <c r="AA3" s="141"/>
-      <c r="AB3" s="141"/>
-      <c r="AC3" s="141"/>
-      <c r="AD3" s="141"/>
+      <c r="Y3" s="138"/>
+      <c r="Z3" s="138"/>
+      <c r="AA3" s="138"/>
+      <c r="AB3" s="138"/>
+      <c r="AC3" s="138"/>
+      <c r="AD3" s="138"/>
       <c r="AE3" s="14"/>
       <c r="AF3" s="14" t="s">
         <v>7</v>
@@ -2548,7 +2541,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:33" s="1" customFormat="1" ht="32" thickBot="1">
+    <row r="4" spans="1:33" s="1" customFormat="1" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="13" t="s">
         <v>9</v>
       </c>
@@ -2602,7 +2595,7 @@
       <c r="S4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="T4" s="139"/>
+      <c r="T4" s="136"/>
       <c r="U4" s="37"/>
       <c r="V4" s="13"/>
       <c r="W4" s="8"/>
@@ -2633,7 +2626,7 @@
       <c r="AF4" s="13"/>
       <c r="AG4" s="13"/>
     </row>
-    <row r="5" spans="1:33" ht="15" thickBot="1">
+    <row r="5" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="17">
         <v>1</v>
       </c>
@@ -2672,451 +2665,451 @@
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
     </row>
-    <row r="6" spans="1:33" s="59" customFormat="1" ht="40.5" thickBot="1">
-      <c r="A6" s="54" t="s">
+    <row r="6" spans="1:33" s="58" customFormat="1" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="87" t="s">
+      <c r="C6" s="86" t="s">
         <v>99</v>
       </c>
-      <c r="D6" s="56" t="s">
+      <c r="D6" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="57" t="s">
+      <c r="E6" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="57"/>
-      <c r="G6" s="54" t="s">
+      <c r="F6" s="56"/>
+      <c r="G6" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="H6" s="107" t="s">
+      <c r="H6" s="52" t="s">
+        <v>357</v>
+      </c>
+      <c r="I6" s="53" t="s">
+        <v>321</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="K6" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="M6" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" s="57"/>
+      <c r="O6" s="85" t="s">
+        <v>352</v>
+      </c>
+      <c r="P6" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="S6" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="T6" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="U6" s="53"/>
+      <c r="V6" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="W6" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="X6" s="54"/>
+      <c r="Y6" s="54"/>
+      <c r="Z6" s="54"/>
+      <c r="AA6" s="54"/>
+      <c r="AB6" s="54"/>
+      <c r="AC6" s="54"/>
+      <c r="AD6" s="54"/>
+      <c r="AE6" s="57"/>
+      <c r="AF6" s="57"/>
+      <c r="AG6" s="57"/>
+    </row>
+    <row r="7" spans="1:33" s="58" customFormat="1" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="116" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="117" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="117" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="118" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="59"/>
+      <c r="G7" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="52" t="s">
+        <v>358</v>
+      </c>
+      <c r="I7" s="53" t="s">
+        <v>321</v>
+      </c>
+      <c r="J7" s="61" t="s">
+        <v>293</v>
+      </c>
+      <c r="K7" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="M7" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" s="62"/>
+      <c r="O7" s="121" t="s">
+        <v>130</v>
+      </c>
+      <c r="P7" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="R7" s="83" t="s">
+        <v>29</v>
+      </c>
+      <c r="S7" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="T7" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="U7" s="60"/>
+      <c r="V7" s="119" t="s">
+        <v>33</v>
+      </c>
+      <c r="W7" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="X7" s="64"/>
+      <c r="Y7" s="64"/>
+      <c r="Z7" s="64"/>
+      <c r="AA7" s="64"/>
+      <c r="AB7" s="64"/>
+      <c r="AC7" s="64"/>
+      <c r="AD7" s="64"/>
+      <c r="AE7" s="62"/>
+      <c r="AF7" s="62"/>
+      <c r="AG7" s="62"/>
+    </row>
+    <row r="8" spans="1:33" s="58" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="116"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="59"/>
+      <c r="G8" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" s="52" t="s">
+        <v>358</v>
+      </c>
+      <c r="I8" s="53" t="s">
+        <v>321</v>
+      </c>
+      <c r="J8" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" s="62"/>
+      <c r="O8" s="122"/>
+      <c r="P8" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q8" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="R8" s="59"/>
+      <c r="S8" s="59"/>
+      <c r="T8" s="60"/>
+      <c r="U8" s="65"/>
+      <c r="V8" s="120"/>
+      <c r="W8" s="63"/>
+      <c r="X8" s="64"/>
+      <c r="Y8" s="64"/>
+      <c r="Z8" s="64"/>
+      <c r="AA8" s="64"/>
+      <c r="AB8" s="64"/>
+      <c r="AC8" s="64"/>
+      <c r="AD8" s="64"/>
+      <c r="AE8" s="62"/>
+      <c r="AF8" s="62"/>
+      <c r="AG8" s="62"/>
+    </row>
+    <row r="9" spans="1:33" s="58" customFormat="1" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="123" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="124" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="124" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="125" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="66"/>
+      <c r="G9" s="67" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="52" t="s">
+        <v>358</v>
+      </c>
+      <c r="I9" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" s="68"/>
+      <c r="O9" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="P9" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="R9" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="S9" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="T9" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="U9" s="69"/>
+      <c r="V9" s="114" t="s">
+        <v>37</v>
+      </c>
+      <c r="W9" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="X9" s="70"/>
+      <c r="Y9" s="70"/>
+      <c r="Z9" s="70"/>
+      <c r="AA9" s="70"/>
+      <c r="AB9" s="70"/>
+      <c r="AC9" s="70"/>
+      <c r="AD9" s="70"/>
+      <c r="AE9" s="68"/>
+      <c r="AF9" s="68"/>
+      <c r="AG9" s="68"/>
+    </row>
+    <row r="10" spans="1:33" s="58" customFormat="1" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="123"/>
+      <c r="B10" s="124"/>
+      <c r="C10" s="124"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="71"/>
+      <c r="G10" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="52" t="s">
+        <v>358</v>
+      </c>
+      <c r="I10" s="53" t="s">
+        <v>321</v>
+      </c>
+      <c r="J10" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="K10" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="72" t="s">
+        <v>74</v>
+      </c>
+      <c r="M10" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" s="73"/>
+      <c r="O10" s="68" t="s">
+        <v>353</v>
+      </c>
+      <c r="P10" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q10" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="R10" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="S10" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="T10" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="U10" s="74"/>
+      <c r="V10" s="115"/>
+      <c r="W10" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="X10" s="75"/>
+      <c r="Y10" s="75"/>
+      <c r="Z10" s="75"/>
+      <c r="AA10" s="75"/>
+      <c r="AB10" s="75"/>
+      <c r="AC10" s="75"/>
+      <c r="AD10" s="75"/>
+      <c r="AE10" s="73"/>
+      <c r="AF10" s="73"/>
+      <c r="AG10" s="73"/>
+    </row>
+    <row r="11" spans="1:33" s="58" customFormat="1" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="78" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="79" t="s">
+        <v>152</v>
+      </c>
+      <c r="F11" s="79"/>
+      <c r="G11" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="52" t="s">
+        <v>355</v>
+      </c>
+      <c r="I11" s="76" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="K11" s="76" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="M11" s="76" t="s">
+        <v>103</v>
+      </c>
+      <c r="N11" s="80"/>
+      <c r="O11" s="84" t="s">
+        <v>354</v>
+      </c>
+      <c r="P11" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q11" s="79" t="s">
+        <v>29</v>
+      </c>
+      <c r="R11" s="79" t="s">
+        <v>30</v>
+      </c>
+      <c r="S11" s="79" t="s">
+        <v>29</v>
+      </c>
+      <c r="T11" s="76" t="s">
         <v>260</v>
       </c>
-      <c r="I6" s="54" t="s">
+      <c r="U11" s="76"/>
+      <c r="V11" s="76" t="s">
+        <v>153</v>
+      </c>
+      <c r="W11" s="76" t="s">
+        <v>31</v>
+      </c>
+      <c r="X11" s="77"/>
+      <c r="Y11" s="77"/>
+      <c r="Z11" s="77"/>
+      <c r="AA11" s="77"/>
+      <c r="AB11" s="77"/>
+      <c r="AC11" s="77"/>
+      <c r="AD11" s="77"/>
+      <c r="AE11" s="82"/>
+      <c r="AF11" s="82"/>
+      <c r="AG11" s="82"/>
+    </row>
+    <row r="13" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:33" ht="86.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="C14" s="22" t="s">
         <v>262</v>
-      </c>
-      <c r="J6" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="K6" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="M6" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="N6" s="58"/>
-      <c r="O6" s="86" t="s">
-        <v>263</v>
-      </c>
-      <c r="P6" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q6" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="R6" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="S6" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="T6" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="U6" s="54"/>
-      <c r="V6" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="W6" s="54" t="s">
-        <v>31</v>
-      </c>
-      <c r="X6" s="55"/>
-      <c r="Y6" s="55"/>
-      <c r="Z6" s="55"/>
-      <c r="AA6" s="55"/>
-      <c r="AB6" s="55"/>
-      <c r="AC6" s="55"/>
-      <c r="AD6" s="55"/>
-      <c r="AE6" s="58"/>
-      <c r="AF6" s="58"/>
-      <c r="AG6" s="58"/>
-    </row>
-    <row r="7" spans="1:33" s="59" customFormat="1" ht="68.25" customHeight="1" thickBot="1">
-      <c r="A7" s="119" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="120" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" s="120" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="121" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="60"/>
-      <c r="G7" s="61" t="s">
-        <v>81</v>
-      </c>
-      <c r="H7" s="39" t="s">
-        <v>261</v>
-      </c>
-      <c r="I7" s="64" t="s">
-        <v>262</v>
-      </c>
-      <c r="J7" s="62" t="s">
-        <v>300</v>
-      </c>
-      <c r="K7" s="61" t="s">
-        <v>72</v>
-      </c>
-      <c r="L7" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="M7" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="N7" s="63"/>
-      <c r="O7" s="124" t="s">
-        <v>130</v>
-      </c>
-      <c r="P7" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q7" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="R7" s="84" t="s">
-        <v>29</v>
-      </c>
-      <c r="S7" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="T7" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="U7" s="61"/>
-      <c r="V7" s="122" t="s">
-        <v>33</v>
-      </c>
-      <c r="W7" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="X7" s="65"/>
-      <c r="Y7" s="65"/>
-      <c r="Z7" s="65"/>
-      <c r="AA7" s="65"/>
-      <c r="AB7" s="65"/>
-      <c r="AC7" s="65"/>
-      <c r="AD7" s="65"/>
-      <c r="AE7" s="63"/>
-      <c r="AF7" s="63"/>
-      <c r="AG7" s="63"/>
-    </row>
-    <row r="8" spans="1:33" s="59" customFormat="1" ht="48" customHeight="1" thickBot="1">
-      <c r="A8" s="119"/>
-      <c r="B8" s="120"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="121"/>
-      <c r="E8" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="60"/>
-      <c r="G8" s="61" t="s">
-        <v>81</v>
-      </c>
-      <c r="H8" s="39" t="s">
-        <v>261</v>
-      </c>
-      <c r="I8" s="64" t="s">
-        <v>262</v>
-      </c>
-      <c r="J8" s="61" t="s">
-        <v>72</v>
-      </c>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="N8" s="63"/>
-      <c r="O8" s="125"/>
-      <c r="P8" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q8" s="60" t="s">
-        <v>98</v>
-      </c>
-      <c r="R8" s="60"/>
-      <c r="S8" s="60"/>
-      <c r="T8" s="61"/>
-      <c r="U8" s="66"/>
-      <c r="V8" s="123"/>
-      <c r="W8" s="64"/>
-      <c r="X8" s="65"/>
-      <c r="Y8" s="65"/>
-      <c r="Z8" s="65"/>
-      <c r="AA8" s="65"/>
-      <c r="AB8" s="65"/>
-      <c r="AC8" s="65"/>
-      <c r="AD8" s="65"/>
-      <c r="AE8" s="63"/>
-      <c r="AF8" s="63"/>
-      <c r="AG8" s="63"/>
-    </row>
-    <row r="9" spans="1:33" s="59" customFormat="1" ht="50.5" thickBot="1">
-      <c r="A9" s="126" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="127" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="127" t="s">
-        <v>102</v>
-      </c>
-      <c r="D9" s="128" t="s">
-        <v>86</v>
-      </c>
-      <c r="E9" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="67"/>
-      <c r="G9" s="68" t="s">
-        <v>81</v>
-      </c>
-      <c r="H9" s="108" t="s">
-        <v>261</v>
-      </c>
-      <c r="I9" s="68" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="68" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9" s="68" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9" s="68" t="s">
-        <v>30</v>
-      </c>
-      <c r="M9" s="68" t="s">
-        <v>30</v>
-      </c>
-      <c r="N9" s="69"/>
-      <c r="O9" s="69" t="s">
-        <v>131</v>
-      </c>
-      <c r="P9" s="68" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q9" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="R9" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="S9" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="T9" s="68" t="s">
-        <v>30</v>
-      </c>
-      <c r="U9" s="70"/>
-      <c r="V9" s="117" t="s">
-        <v>37</v>
-      </c>
-      <c r="W9" s="68" t="s">
-        <v>38</v>
-      </c>
-      <c r="X9" s="71"/>
-      <c r="Y9" s="71"/>
-      <c r="Z9" s="71"/>
-      <c r="AA9" s="71"/>
-      <c r="AB9" s="71"/>
-      <c r="AC9" s="71"/>
-      <c r="AD9" s="71"/>
-      <c r="AE9" s="69"/>
-      <c r="AF9" s="69"/>
-      <c r="AG9" s="69"/>
-    </row>
-    <row r="10" spans="1:33" s="59" customFormat="1" ht="50.5" thickBot="1">
-      <c r="A10" s="126"/>
-      <c r="B10" s="127"/>
-      <c r="C10" s="127"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="72" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="72"/>
-      <c r="G10" s="73" t="s">
-        <v>81</v>
-      </c>
-      <c r="H10" s="108" t="s">
-        <v>261</v>
-      </c>
-      <c r="I10" s="68" t="s">
-        <v>262</v>
-      </c>
-      <c r="J10" s="73" t="s">
-        <v>70</v>
-      </c>
-      <c r="K10" s="73" t="s">
-        <v>30</v>
-      </c>
-      <c r="L10" s="73" t="s">
-        <v>74</v>
-      </c>
-      <c r="M10" s="73" t="s">
-        <v>30</v>
-      </c>
-      <c r="N10" s="74"/>
-      <c r="O10" s="69" t="s">
-        <v>264</v>
-      </c>
-      <c r="P10" s="75" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q10" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="R10" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="S10" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="T10" s="73" t="s">
-        <v>30</v>
-      </c>
-      <c r="U10" s="75"/>
-      <c r="V10" s="118"/>
-      <c r="W10" s="68" t="s">
-        <v>31</v>
-      </c>
-      <c r="X10" s="76"/>
-      <c r="Y10" s="76"/>
-      <c r="Z10" s="76"/>
-      <c r="AA10" s="76"/>
-      <c r="AB10" s="76"/>
-      <c r="AC10" s="76"/>
-      <c r="AD10" s="76"/>
-      <c r="AE10" s="74"/>
-      <c r="AF10" s="74"/>
-      <c r="AG10" s="74"/>
-    </row>
-    <row r="11" spans="1:33" s="59" customFormat="1" ht="84" customHeight="1" thickBot="1">
-      <c r="A11" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="78" t="s">
-        <v>129</v>
-      </c>
-      <c r="C11" s="78" t="s">
-        <v>102</v>
-      </c>
-      <c r="D11" s="79" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="80" t="s">
-        <v>152</v>
-      </c>
-      <c r="F11" s="80"/>
-      <c r="G11" s="77" t="s">
-        <v>78</v>
-      </c>
-      <c r="H11" s="109" t="s">
-        <v>260</v>
-      </c>
-      <c r="I11" s="77" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="77" t="s">
-        <v>70</v>
-      </c>
-      <c r="K11" s="77" t="s">
-        <v>30</v>
-      </c>
-      <c r="L11" s="77" t="s">
-        <v>74</v>
-      </c>
-      <c r="M11" s="77" t="s">
-        <v>103</v>
-      </c>
-      <c r="N11" s="81"/>
-      <c r="O11" s="85" t="s">
-        <v>265</v>
-      </c>
-      <c r="P11" s="82" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q11" s="80" t="s">
-        <v>29</v>
-      </c>
-      <c r="R11" s="80" t="s">
-        <v>30</v>
-      </c>
-      <c r="S11" s="80" t="s">
-        <v>29</v>
-      </c>
-      <c r="T11" s="77" t="s">
-        <v>266</v>
-      </c>
-      <c r="U11" s="77"/>
-      <c r="V11" s="77" t="s">
-        <v>153</v>
-      </c>
-      <c r="W11" s="77" t="s">
-        <v>31</v>
-      </c>
-      <c r="X11" s="78"/>
-      <c r="Y11" s="78"/>
-      <c r="Z11" s="78"/>
-      <c r="AA11" s="78"/>
-      <c r="AB11" s="78"/>
-      <c r="AC11" s="78"/>
-      <c r="AD11" s="78"/>
-      <c r="AE11" s="83"/>
-      <c r="AF11" s="83"/>
-      <c r="AG11" s="83"/>
-    </row>
-    <row r="13" spans="1:33" ht="15" thickBot="1"/>
-    <row r="14" spans="1:33" ht="86.25" customHeight="1" thickBot="1">
-      <c r="A14" s="33" t="s">
-        <v>283</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>268</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>27</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="F14" s="31"/>
-      <c r="G14" s="53" t="s">
-        <v>269</v>
-      </c>
-      <c r="H14" s="53" t="s">
-        <v>269</v>
+      <c r="G14" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="H14" s="52" t="s">
+        <v>359</v>
       </c>
       <c r="I14" s="33" t="s">
         <v>30</v>
       </c>
       <c r="J14" s="33" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="K14" s="33" t="s">
         <v>30</v>
@@ -3129,7 +3122,7 @@
       </c>
       <c r="N14" s="21"/>
       <c r="O14" s="31" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="P14" s="31" t="s">
         <v>30</v>
@@ -3164,34 +3157,34 @@
       <c r="AF14" s="21"/>
       <c r="AG14" s="21"/>
     </row>
-    <row r="15" spans="1:33" ht="87.75" customHeight="1" thickBot="1">
+    <row r="15" spans="1:33" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="33" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="F15" s="32"/>
-      <c r="G15" s="53" t="s">
-        <v>269</v>
-      </c>
-      <c r="H15" s="53" t="s">
-        <v>269</v>
+      <c r="G15" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="H15" s="52" t="s">
+        <v>359</v>
       </c>
       <c r="I15" s="33" t="s">
         <v>30</v>
       </c>
       <c r="J15" s="33" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="K15" s="33" t="s">
         <v>30</v>
@@ -3204,7 +3197,7 @@
       </c>
       <c r="N15" s="23"/>
       <c r="O15" s="31" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="P15" s="31" t="s">
         <v>30</v>
@@ -3221,7 +3214,7 @@
       <c r="T15" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="U15" s="88"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="33" t="s">
         <v>34</v>
       </c>
@@ -3239,68 +3232,68 @@
       <c r="AF15" s="23"/>
       <c r="AG15" s="23"/>
     </row>
-    <row r="16" spans="1:33" ht="87" customHeight="1" thickBot="1">
-      <c r="A16" s="89" t="s">
-        <v>293</v>
-      </c>
-      <c r="B16" s="90" t="s">
-        <v>274</v>
-      </c>
-      <c r="C16" s="90" t="s">
-        <v>275</v>
-      </c>
-      <c r="D16" s="90" t="s">
-        <v>276</v>
-      </c>
-      <c r="E16" s="91" t="s">
-        <v>318</v>
+    <row r="16" spans="1:33" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="88" t="s">
+        <v>286</v>
+      </c>
+      <c r="B16" s="89" t="s">
+        <v>267</v>
+      </c>
+      <c r="C16" s="89" t="s">
+        <v>268</v>
+      </c>
+      <c r="D16" s="89" t="s">
+        <v>269</v>
+      </c>
+      <c r="E16" s="90" t="s">
+        <v>311</v>
       </c>
       <c r="F16" s="32"/>
-      <c r="G16" s="53" t="s">
-        <v>269</v>
-      </c>
-      <c r="H16" s="105" t="s">
-        <v>269</v>
-      </c>
-      <c r="I16" s="89" t="s">
-        <v>30</v>
-      </c>
-      <c r="J16" s="89" t="s">
-        <v>30</v>
-      </c>
-      <c r="K16" s="89" t="s">
-        <v>30</v>
-      </c>
-      <c r="L16" s="89" t="s">
-        <v>30</v>
-      </c>
-      <c r="M16" s="89" t="s">
+      <c r="G16" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="H16" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="I16" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="L16" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16" s="88" t="s">
         <v>30</v>
       </c>
       <c r="N16" s="23"/>
-      <c r="O16" s="89" t="s">
-        <v>321</v>
-      </c>
-      <c r="P16" s="89" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q16" s="89" t="s">
-        <v>30</v>
-      </c>
-      <c r="R16" s="89" t="s">
-        <v>30</v>
-      </c>
-      <c r="S16" s="89" t="s">
-        <v>30</v>
-      </c>
-      <c r="T16" s="89" t="s">
-        <v>30</v>
-      </c>
-      <c r="U16" s="88"/>
-      <c r="V16" s="89" t="s">
+      <c r="O16" s="88" t="s">
+        <v>314</v>
+      </c>
+      <c r="P16" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q16" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="R16" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="S16" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="T16" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="U16" s="87"/>
+      <c r="V16" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="W16" s="89" t="s">
+      <c r="W16" s="88" t="s">
         <v>38</v>
       </c>
       <c r="X16" s="24"/>
@@ -3314,71 +3307,71 @@
       <c r="AF16" s="23"/>
       <c r="AG16" s="23"/>
     </row>
-    <row r="17" spans="1:33" ht="94.5" customHeight="1" thickBot="1">
-      <c r="A17" s="92" t="s">
-        <v>294</v>
-      </c>
-      <c r="B17" s="93" t="s">
-        <v>267</v>
-      </c>
-      <c r="C17" s="93" t="s">
-        <v>277</v>
-      </c>
-      <c r="D17" s="93" t="s">
+    <row r="17" spans="1:33" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="91" t="s">
+        <v>287</v>
+      </c>
+      <c r="B17" s="92" t="s">
+        <v>261</v>
+      </c>
+      <c r="C17" s="92" t="s">
+        <v>270</v>
+      </c>
+      <c r="D17" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="92" t="s">
-        <v>278</v>
-      </c>
-      <c r="F17" s="92"/>
-      <c r="G17" s="94" t="s">
-        <v>279</v>
-      </c>
-      <c r="H17" s="106" t="s">
-        <v>345</v>
-      </c>
-      <c r="I17" s="92" t="s">
+      <c r="E17" s="91" t="s">
+        <v>271</v>
+      </c>
+      <c r="F17" s="91"/>
+      <c r="G17" s="93" t="s">
+        <v>272</v>
+      </c>
+      <c r="H17" s="104" t="s">
+        <v>359</v>
+      </c>
+      <c r="I17" s="91" t="s">
         <v>30</v>
       </c>
       <c r="J17" s="36" t="s">
-        <v>280</v>
-      </c>
-      <c r="K17" s="92" t="s">
-        <v>30</v>
-      </c>
-      <c r="L17" s="92" t="s">
-        <v>30</v>
-      </c>
-      <c r="M17" s="92" t="s">
-        <v>30</v>
-      </c>
-      <c r="N17" s="93"/>
-      <c r="O17" s="95" t="s">
-        <v>355</v>
-      </c>
-      <c r="P17" s="95" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q17" s="95" t="s">
+        <v>273</v>
+      </c>
+      <c r="K17" s="91" t="s">
+        <v>30</v>
+      </c>
+      <c r="L17" s="91" t="s">
+        <v>30</v>
+      </c>
+      <c r="M17" s="91" t="s">
+        <v>30</v>
+      </c>
+      <c r="N17" s="92"/>
+      <c r="O17" s="94" t="s">
+        <v>348</v>
+      </c>
+      <c r="P17" s="94" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q17" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="R17" s="95" t="s">
-        <v>30</v>
-      </c>
-      <c r="S17" s="95" t="s">
+      <c r="R17" s="94" t="s">
+        <v>30</v>
+      </c>
+      <c r="S17" s="94" t="s">
         <v>30</v>
       </c>
       <c r="T17" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="U17" s="92"/>
-      <c r="V17" s="92" t="s">
-        <v>281</v>
-      </c>
-      <c r="W17" s="92" t="s">
-        <v>282</v>
-      </c>
-      <c r="X17" s="96"/>
+      <c r="U17" s="91"/>
+      <c r="V17" s="91" t="s">
+        <v>274</v>
+      </c>
+      <c r="W17" s="91" t="s">
+        <v>275</v>
+      </c>
+      <c r="X17" s="95"/>
       <c r="Y17" s="24"/>
       <c r="Z17" s="24"/>
       <c r="AA17" s="24"/>
@@ -3389,71 +3382,71 @@
       <c r="AF17" s="23"/>
       <c r="AG17" s="23"/>
     </row>
-    <row r="18" spans="1:33" ht="118.5" customHeight="1" thickBot="1">
-      <c r="A18" s="92" t="s">
-        <v>295</v>
-      </c>
-      <c r="B18" s="97" t="s">
-        <v>271</v>
-      </c>
-      <c r="C18" s="97" t="s">
+    <row r="18" spans="1:33" ht="118.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="91" t="s">
+        <v>288</v>
+      </c>
+      <c r="B18" s="96" t="s">
+        <v>264</v>
+      </c>
+      <c r="C18" s="96" t="s">
+        <v>270</v>
+      </c>
+      <c r="D18" s="96" t="s">
         <v>277</v>
       </c>
-      <c r="D18" s="97" t="s">
-        <v>284</v>
-      </c>
-      <c r="E18" s="92" t="s">
-        <v>285</v>
-      </c>
-      <c r="F18" s="92"/>
-      <c r="G18" s="94" t="s">
+      <c r="E18" s="91" t="s">
+        <v>278</v>
+      </c>
+      <c r="F18" s="91"/>
+      <c r="G18" s="93" t="s">
+        <v>272</v>
+      </c>
+      <c r="H18" s="104" t="s">
+        <v>359</v>
+      </c>
+      <c r="I18" s="91" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="K18" s="91" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="91" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="91" t="s">
+        <v>30</v>
+      </c>
+      <c r="N18" s="92"/>
+      <c r="O18" s="94" t="s">
+        <v>349</v>
+      </c>
+      <c r="P18" s="94" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="94" t="s">
+        <v>29</v>
+      </c>
+      <c r="R18" s="94" t="s">
+        <v>30</v>
+      </c>
+      <c r="S18" s="94" t="s">
+        <v>30</v>
+      </c>
+      <c r="T18" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="U18" s="91"/>
+      <c r="V18" s="91" t="s">
         <v>279</v>
       </c>
-      <c r="H18" s="106" t="s">
-        <v>345</v>
-      </c>
-      <c r="I18" s="92" t="s">
-        <v>30</v>
-      </c>
-      <c r="J18" s="36" t="s">
-        <v>280</v>
-      </c>
-      <c r="K18" s="92" t="s">
-        <v>30</v>
-      </c>
-      <c r="L18" s="92" t="s">
-        <v>30</v>
-      </c>
-      <c r="M18" s="92" t="s">
-        <v>30</v>
-      </c>
-      <c r="N18" s="93"/>
-      <c r="O18" s="95" t="s">
-        <v>356</v>
-      </c>
-      <c r="P18" s="95" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q18" s="95" t="s">
-        <v>29</v>
-      </c>
-      <c r="R18" s="95" t="s">
-        <v>30</v>
-      </c>
-      <c r="S18" s="95" t="s">
-        <v>30</v>
-      </c>
-      <c r="T18" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="U18" s="92"/>
-      <c r="V18" s="92" t="s">
-        <v>286</v>
-      </c>
-      <c r="W18" s="92" t="s">
-        <v>282</v>
-      </c>
-      <c r="X18" s="96"/>
+      <c r="W18" s="91" t="s">
+        <v>275</v>
+      </c>
+      <c r="X18" s="95"/>
       <c r="Y18" s="24"/>
       <c r="Z18" s="24"/>
       <c r="AA18" s="24"/>
@@ -3464,47 +3457,47 @@
       <c r="AF18" s="23"/>
       <c r="AG18" s="23"/>
     </row>
-    <row r="19" spans="1:33" ht="94.5">
-      <c r="A19" s="92" t="s">
-        <v>296</v>
+    <row r="19" spans="1:33" ht="94.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="91" t="s">
+        <v>289</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>289</v>
-      </c>
-      <c r="E19" s="92" t="s">
-        <v>290</v>
-      </c>
-      <c r="F19" s="92"/>
-      <c r="G19" s="94" t="s">
-        <v>279</v>
-      </c>
-      <c r="H19" s="106" t="s">
-        <v>345</v>
-      </c>
-      <c r="I19" s="92" t="s">
-        <v>30</v>
-      </c>
-      <c r="J19" s="92" t="s">
-        <v>30</v>
-      </c>
-      <c r="K19" s="92" t="s">
-        <v>30</v>
-      </c>
-      <c r="L19" s="92" t="s">
-        <v>30</v>
-      </c>
-      <c r="M19" s="92" t="s">
-        <v>30</v>
-      </c>
-      <c r="N19" s="93"/>
+        <v>282</v>
+      </c>
+      <c r="E19" s="91" t="s">
+        <v>283</v>
+      </c>
+      <c r="F19" s="91"/>
+      <c r="G19" s="93" t="s">
+        <v>272</v>
+      </c>
+      <c r="H19" s="104" t="s">
+        <v>359</v>
+      </c>
+      <c r="I19" s="91" t="s">
+        <v>30</v>
+      </c>
+      <c r="J19" s="91" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="91" t="s">
+        <v>30</v>
+      </c>
+      <c r="L19" s="91" t="s">
+        <v>30</v>
+      </c>
+      <c r="M19" s="91" t="s">
+        <v>30</v>
+      </c>
+      <c r="N19" s="92"/>
       <c r="O19" s="35" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="P19" s="35" t="s">
         <v>30</v>
@@ -3521,14 +3514,14 @@
       <c r="T19" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="U19" s="92"/>
-      <c r="V19" s="92" t="s">
-        <v>291</v>
-      </c>
-      <c r="W19" s="92" t="s">
-        <v>292</v>
-      </c>
-      <c r="X19" s="96"/>
+      <c r="U19" s="91"/>
+      <c r="V19" s="91" t="s">
+        <v>284</v>
+      </c>
+      <c r="W19" s="91" t="s">
+        <v>285</v>
+      </c>
+      <c r="X19" s="95"/>
       <c r="Y19" s="24"/>
       <c r="Z19" s="24"/>
       <c r="AA19" s="24"/>
@@ -3539,121 +3532,143 @@
       <c r="AF19" s="23"/>
       <c r="AG19" s="23"/>
     </row>
-    <row r="20" spans="1:33" s="103" customFormat="1" ht="48" customHeight="1" thickBot="1">
-      <c r="A20" s="98"/>
-      <c r="B20" s="99"/>
-      <c r="C20" s="99"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="98"/>
-      <c r="G20" s="101"/>
-      <c r="H20" s="101"/>
-      <c r="I20" s="98"/>
-      <c r="J20" s="98"/>
-      <c r="K20" s="98"/>
-      <c r="L20" s="98"/>
-      <c r="M20" s="98"/>
-      <c r="N20" s="99"/>
-      <c r="O20" s="99"/>
-      <c r="P20" s="98"/>
-      <c r="Q20" s="102"/>
-      <c r="R20" s="98"/>
-      <c r="S20" s="98"/>
-      <c r="T20" s="98"/>
-      <c r="U20" s="98"/>
-      <c r="V20" s="98"/>
-      <c r="W20" s="98"/>
-      <c r="X20" s="99"/>
-      <c r="Y20" s="99"/>
-      <c r="Z20" s="99"/>
-      <c r="AA20" s="99"/>
-      <c r="AB20" s="99"/>
-      <c r="AC20" s="99"/>
-      <c r="AD20" s="99"/>
-      <c r="AE20" s="99"/>
-      <c r="AF20" s="99"/>
-      <c r="AG20" s="99"/>
-    </row>
-    <row r="21" spans="1:33">
-      <c r="A21" s="115" t="s">
+    <row r="20" spans="1:33" s="102" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="97"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="97"/>
+      <c r="F20" s="97"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="100"/>
+      <c r="I20" s="97"/>
+      <c r="J20" s="97"/>
+      <c r="K20" s="97"/>
+      <c r="L20" s="97"/>
+      <c r="M20" s="97"/>
+      <c r="N20" s="98"/>
+      <c r="O20" s="98"/>
+      <c r="P20" s="97"/>
+      <c r="Q20" s="101"/>
+      <c r="R20" s="97"/>
+      <c r="S20" s="97"/>
+      <c r="T20" s="97"/>
+      <c r="U20" s="97"/>
+      <c r="V20" s="97"/>
+      <c r="W20" s="97"/>
+      <c r="X20" s="98"/>
+      <c r="Y20" s="98"/>
+      <c r="Z20" s="98"/>
+      <c r="AA20" s="98"/>
+      <c r="AB20" s="98"/>
+      <c r="AC20" s="98"/>
+      <c r="AD20" s="98"/>
+      <c r="AE20" s="98"/>
+      <c r="AF20" s="98"/>
+      <c r="AG20" s="98"/>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A21" s="112" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="116"/>
-    </row>
-    <row r="22" spans="1:33">
-      <c r="A22" s="42" t="s">
+      <c r="B21" s="113"/>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A22" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="42" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:33">
-      <c r="A23" s="42" t="s">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A23" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="42" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:33">
-      <c r="A24" s="42" t="s">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A24" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="42" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:33">
-      <c r="A25" s="42" t="s">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A25" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="43" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="26" spans="1:33">
-      <c r="A26" s="42" t="s">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A26" s="41" t="s">
         <v>156</v>
       </c>
       <c r="B26" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="27" spans="1:33" ht="15" thickBot="1"/>
-    <row r="28" spans="1:33">
-      <c r="A28" s="115" t="s">
+    <row r="27" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A28" s="112" t="s">
         <v>96</v>
       </c>
-      <c r="B28" s="116"/>
-    </row>
-    <row r="29" spans="1:33">
-      <c r="A29" s="42" t="s">
-        <v>297</v>
-      </c>
-      <c r="B29" s="43" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="30" spans="1:33">
-      <c r="A30" s="42" t="s">
-        <v>299</v>
-      </c>
-      <c r="B30" s="43" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="31" spans="1:33">
-      <c r="A31" s="42"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="104"/>
-      <c r="D31" s="104"/>
-    </row>
-    <row r="32" spans="1:33">
-      <c r="A32" s="42"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="104"/>
-      <c r="D32" s="104"/>
+      <c r="B28" s="113"/>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A29" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B29" s="42" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A30" s="41" t="s">
+        <v>292</v>
+      </c>
+      <c r="B30" s="42" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A31" s="41"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="103"/>
+      <c r="D31" s="103"/>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A32" s="41"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="103"/>
+      <c r="D32" s="103"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="110" t="s">
+        <v>356</v>
+      </c>
+      <c r="B33" s="111" t="s">
+        <v>302</v>
+      </c>
+      <c r="C33" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="110" t="s">
+        <v>303</v>
+      </c>
+      <c r="B34" s="42" t="s">
+        <v>304</v>
+      </c>
+      <c r="C34" t="s">
+        <v>308</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -3678,7 +3693,7 @@
     <mergeCell ref="D9:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
@@ -3708,9 +3723,9 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>108</v>
       </c>
@@ -3784,7 +3799,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -3840,7 +3855,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>92</v>
       </c>
@@ -3896,7 +3911,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>95</v>
       </c>
@@ -3952,7 +3967,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>91</v>
       </c>
@@ -4008,33 +4023,33 @@
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
-      <c r="A6" s="43" t="s">
-        <v>322</v>
-      </c>
-      <c r="B6" s="43" t="s">
-        <v>322</v>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A6" s="42" t="s">
+        <v>315</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>315</v>
       </c>
       <c r="C6" t="s">
         <v>245</v>
       </c>
       <c r="D6" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="E6" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="F6" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G6" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="J6" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="K6" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="M6" t="s">
         <v>258</v>
@@ -4067,33 +4082,33 @@
         <v>255</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
-      <c r="A7" s="43" t="s">
-        <v>323</v>
-      </c>
-      <c r="B7" s="43" t="s">
-        <v>323</v>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A7" s="42" t="s">
+        <v>316</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>316</v>
       </c>
       <c r="C7" t="s">
         <v>245</v>
       </c>
       <c r="D7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="E7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="F7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="J7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="K7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="M7" t="s">
         <v>258</v>
@@ -4140,14 +4155,14 @@
       <selection activeCell="A105" sqref="A105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="58" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="117.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>157</v>
       </c>
@@ -4164,7 +4179,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>91</v>
       </c>
@@ -4181,7 +4196,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -4198,7 +4213,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>93</v>
       </c>
@@ -4215,7 +4230,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>93</v>
       </c>
@@ -4232,7 +4247,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>93</v>
       </c>
@@ -4249,7 +4264,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>93</v>
       </c>
@@ -4266,7 +4281,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>93</v>
       </c>
@@ -4283,7 +4298,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>92</v>
       </c>
@@ -4300,7 +4315,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>92</v>
       </c>
@@ -4317,7 +4332,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>92</v>
       </c>
@@ -4334,7 +4349,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>92</v>
       </c>
@@ -4351,7 +4366,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>92</v>
       </c>
@@ -4368,7 +4383,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>95</v>
       </c>
@@ -4385,7 +4400,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>95</v>
       </c>
@@ -4402,7 +4417,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>95</v>
       </c>
@@ -4419,7 +4434,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>95</v>
       </c>
@@ -4436,7 +4451,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>95</v>
       </c>
@@ -4453,7 +4468,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>95</v>
       </c>
@@ -4470,7 +4485,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>155</v>
       </c>
@@ -4487,7 +4502,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>155</v>
       </c>
@@ -4504,7 +4519,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>155</v>
       </c>
@@ -4521,7 +4536,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>155</v>
       </c>
@@ -4538,7 +4553,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>155</v>
       </c>
@@ -4555,7 +4570,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>155</v>
       </c>
@@ -4572,7 +4587,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>155</v>
       </c>
@@ -4589,7 +4604,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>155</v>
       </c>
@@ -4606,7 +4621,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>155</v>
       </c>
@@ -4623,7 +4638,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>155</v>
       </c>
@@ -4640,7 +4655,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>155</v>
       </c>
@@ -4657,7 +4672,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>155</v>
       </c>
@@ -4674,7 +4689,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>155</v>
       </c>
@@ -4691,7 +4706,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>155</v>
       </c>
@@ -4708,7 +4723,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>155</v>
       </c>
@@ -4725,7 +4740,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>155</v>
       </c>
@@ -4742,7 +4757,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>155</v>
       </c>
@@ -4759,7 +4774,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>155</v>
       </c>
@@ -4776,7 +4791,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>155</v>
       </c>
@@ -4793,7 +4808,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>155</v>
       </c>
@@ -4810,7 +4825,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>155</v>
       </c>
@@ -4827,7 +4842,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>155</v>
       </c>
@@ -4844,7 +4859,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>155</v>
       </c>
@@ -4861,7 +4876,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>155</v>
       </c>
@@ -4878,7 +4893,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>155</v>
       </c>
@@ -4895,7 +4910,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>155</v>
       </c>
@@ -4912,7 +4927,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>155</v>
       </c>
@@ -4929,7 +4944,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>155</v>
       </c>
@@ -4946,7 +4961,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>155</v>
       </c>
@@ -4963,7 +4978,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>155</v>
       </c>
@@ -4980,7 +4995,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>155</v>
       </c>
@@ -4997,7 +5012,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>155</v>
       </c>
@@ -5014,7 +5029,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>155</v>
       </c>
@@ -5031,7 +5046,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>155</v>
       </c>
@@ -5048,7 +5063,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>155</v>
       </c>
@@ -5065,7 +5080,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>155</v>
       </c>
@@ -5082,7 +5097,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>155</v>
       </c>
@@ -5099,7 +5114,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>155</v>
       </c>
@@ -5116,7 +5131,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>155</v>
       </c>
@@ -5133,7 +5148,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>155</v>
       </c>
@@ -5150,7 +5165,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>155</v>
       </c>
@@ -5167,7 +5182,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>155</v>
       </c>
@@ -5184,7 +5199,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>155</v>
       </c>
@@ -5201,7 +5216,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>155</v>
       </c>
@@ -5218,7 +5233,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>212</v>
       </c>
@@ -5235,7 +5250,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>212</v>
       </c>
@@ -5252,7 +5267,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>212</v>
       </c>
@@ -5269,7 +5284,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>212</v>
       </c>
@@ -5286,7 +5301,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>212</v>
       </c>
@@ -5303,7 +5318,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>212</v>
       </c>
@@ -5320,7 +5335,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>212</v>
       </c>
@@ -5337,7 +5352,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>212</v>
       </c>
@@ -5354,7 +5369,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>212</v>
       </c>
@@ -5371,7 +5386,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>212</v>
       </c>
@@ -5388,7 +5403,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>212</v>
       </c>
@@ -5405,7 +5420,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>212</v>
       </c>
@@ -5422,7 +5437,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>212</v>
       </c>
@@ -5439,7 +5454,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>212</v>
       </c>
@@ -5456,7 +5471,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>212</v>
       </c>
@@ -5473,7 +5488,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>212</v>
       </c>
@@ -5490,7 +5505,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>212</v>
       </c>
@@ -5507,7 +5522,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>212</v>
       </c>
@@ -5524,7 +5539,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>212</v>
       </c>
@@ -5541,7 +5556,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>212</v>
       </c>
@@ -5558,7 +5573,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>212</v>
       </c>
@@ -5575,7 +5590,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>212</v>
       </c>
@@ -5592,7 +5607,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>212</v>
       </c>
@@ -5609,7 +5624,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>212</v>
       </c>
@@ -5626,7 +5641,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>212</v>
       </c>
@@ -5643,7 +5658,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>212</v>
       </c>
@@ -5660,7 +5675,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>212</v>
       </c>
@@ -5677,7 +5692,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>212</v>
       </c>
@@ -5694,7 +5709,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>212</v>
       </c>
@@ -5711,7 +5726,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>212</v>
       </c>
@@ -5728,7 +5743,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>212</v>
       </c>
@@ -5745,106 +5760,106 @@
         <v>217</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
-      <c r="A95" s="43" t="s">
-        <v>322</v>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" s="42" t="s">
+        <v>315</v>
       </c>
       <c r="B95" t="s">
+        <v>300</v>
+      </c>
+      <c r="C95" t="s">
+        <v>300</v>
+      </c>
+      <c r="D95" t="s">
+        <v>301</v>
+      </c>
+      <c r="E95" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" s="42" t="s">
+        <v>315</v>
+      </c>
+      <c r="B96" t="s">
+        <v>300</v>
+      </c>
+      <c r="C96" t="s">
+        <v>300</v>
+      </c>
+      <c r="D96" t="s">
+        <v>303</v>
+      </c>
+      <c r="E96" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" s="42" t="s">
+        <v>315</v>
+      </c>
+      <c r="B97" t="s">
+        <v>300</v>
+      </c>
+      <c r="C97" t="s">
+        <v>300</v>
+      </c>
+      <c r="D97" t="s">
+        <v>305</v>
+      </c>
+      <c r="E97" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" s="42" t="s">
+        <v>316</v>
+      </c>
+      <c r="B98" t="s">
+        <v>300</v>
+      </c>
+      <c r="C98" t="s">
+        <v>300</v>
+      </c>
+      <c r="D98" t="s">
+        <v>301</v>
+      </c>
+      <c r="E98" t="s">
         <v>307</v>
       </c>
-      <c r="C95" t="s">
-        <v>307</v>
-      </c>
-      <c r="D95" t="s">
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" s="42" t="s">
+        <v>316</v>
+      </c>
+      <c r="B99" t="s">
+        <v>300</v>
+      </c>
+      <c r="C99" t="s">
+        <v>300</v>
+      </c>
+      <c r="D99" t="s">
+        <v>303</v>
+      </c>
+      <c r="E99" t="s">
         <v>308</v>
       </c>
-      <c r="E95" t="s">
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100" s="42" t="s">
+        <v>316</v>
+      </c>
+      <c r="B100" t="s">
+        <v>300</v>
+      </c>
+      <c r="C100" t="s">
+        <v>300</v>
+      </c>
+      <c r="D100" t="s">
+        <v>305</v>
+      </c>
+      <c r="E100" t="s">
         <v>309</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" s="43" t="s">
-        <v>322</v>
-      </c>
-      <c r="B96" t="s">
-        <v>307</v>
-      </c>
-      <c r="C96" t="s">
-        <v>307</v>
-      </c>
-      <c r="D96" t="s">
-        <v>310</v>
-      </c>
-      <c r="E96" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" s="43" t="s">
-        <v>322</v>
-      </c>
-      <c r="B97" t="s">
-        <v>307</v>
-      </c>
-      <c r="C97" t="s">
-        <v>307</v>
-      </c>
-      <c r="D97" t="s">
-        <v>312</v>
-      </c>
-      <c r="E97" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="43" t="s">
-        <v>323</v>
-      </c>
-      <c r="B98" t="s">
-        <v>307</v>
-      </c>
-      <c r="C98" t="s">
-        <v>307</v>
-      </c>
-      <c r="D98" t="s">
-        <v>308</v>
-      </c>
-      <c r="E98" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" s="43" t="s">
-        <v>323</v>
-      </c>
-      <c r="B99" t="s">
-        <v>307</v>
-      </c>
-      <c r="C99" t="s">
-        <v>307</v>
-      </c>
-      <c r="D99" t="s">
-        <v>310</v>
-      </c>
-      <c r="E99" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" s="43" t="s">
-        <v>323</v>
-      </c>
-      <c r="B100" t="s">
-        <v>307</v>
-      </c>
-      <c r="C100" t="s">
-        <v>307</v>
-      </c>
-      <c r="D100" t="s">
-        <v>312</v>
-      </c>
-      <c r="E100" t="s">
-        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -5860,13 +5875,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B3:O41"/>
+  <dimension ref="B3:O42"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="43.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.81640625" customWidth="1"/>
@@ -5875,1414 +5890,1419 @@
     <col min="15" max="15" width="24.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B5" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="G5" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="J5" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="44"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B6" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="45">
+        <v>1</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="H6" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" s="45">
+        <v>0</v>
+      </c>
+      <c r="L6" s="45">
+        <v>0</v>
+      </c>
+      <c r="M6" s="45"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B7" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="45">
+        <v>1</v>
+      </c>
+      <c r="F7" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="H7" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="45">
+        <v>0</v>
+      </c>
+      <c r="L7" s="45">
+        <v>0</v>
+      </c>
+      <c r="M7" s="45"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B8" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="45">
+        <v>1</v>
+      </c>
+      <c r="F8" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="H8" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="K8" s="45">
+        <v>0</v>
+      </c>
+      <c r="L8" s="45">
+        <v>0</v>
+      </c>
+      <c r="M8" s="45"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B9" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="45">
+        <v>1</v>
+      </c>
+      <c r="F9" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="H9" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="K9" s="45">
+        <v>0</v>
+      </c>
+      <c r="L9" s="45">
+        <v>0</v>
+      </c>
+      <c r="M9" s="45"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B10" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10" s="45">
+        <v>1</v>
+      </c>
+      <c r="F10" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="H10" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="I10" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="J10" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="K10" s="45">
+        <v>0</v>
+      </c>
+      <c r="L10" s="45">
+        <v>0</v>
+      </c>
+      <c r="M10" s="45"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B11" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11" s="45">
+        <v>1</v>
+      </c>
+      <c r="F11" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="H11" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="I11" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="J11" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="K11" s="45">
+        <v>0</v>
+      </c>
+      <c r="L11" s="45">
+        <v>0</v>
+      </c>
+      <c r="M11" s="45"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B12" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="E12" s="45">
+        <v>1</v>
+      </c>
+      <c r="F12" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="H12" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="I12" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="J12" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="K12" s="45">
+        <v>0</v>
+      </c>
+      <c r="L12" s="45">
+        <v>0</v>
+      </c>
+      <c r="M12" s="45"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B13" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="E13" s="45">
+        <v>1</v>
+      </c>
+      <c r="F13" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="H13" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="I13" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="J13" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="K13" s="45">
+        <v>0</v>
+      </c>
+      <c r="L13" s="45">
+        <v>0</v>
+      </c>
+      <c r="M13" s="45"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B14" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="E14" s="45">
+        <v>1</v>
+      </c>
+      <c r="F14" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="H14" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="I14" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="J14" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="K14" s="45">
+        <v>0</v>
+      </c>
+      <c r="L14" s="45">
+        <v>0</v>
+      </c>
+      <c r="M14" s="45"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B15" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="E15" s="45">
+        <v>1</v>
+      </c>
+      <c r="F15" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="H15" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="I15" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="J15" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="K15" s="45">
+        <v>0</v>
+      </c>
+      <c r="L15" s="45">
+        <v>0</v>
+      </c>
+      <c r="M15" s="45"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B16" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="46">
+        <v>1</v>
+      </c>
+      <c r="F16" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="H16" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="J16" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="K16" s="46">
+        <v>0</v>
+      </c>
+      <c r="L16" s="46">
+        <v>0</v>
+      </c>
+      <c r="M16" s="45"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B17" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="46">
+        <v>1</v>
+      </c>
+      <c r="F17" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="H17" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="I17" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="K17" s="46">
+        <v>0</v>
+      </c>
+      <c r="L17" s="46">
+        <v>0</v>
+      </c>
+      <c r="M17" s="45"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B18" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="46">
+        <v>1</v>
+      </c>
+      <c r="F18" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="H18" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="J18" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="K18" s="46">
+        <v>0</v>
+      </c>
+      <c r="L18" s="46">
+        <v>0</v>
+      </c>
+      <c r="M18" s="45"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B19" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="47">
+        <v>1</v>
+      </c>
+      <c r="F19" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="H19" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="I19" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="J19" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="K19" s="47">
+        <v>0</v>
+      </c>
+      <c r="L19" s="47">
+        <v>0</v>
+      </c>
+      <c r="M19" s="45"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B20" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="47">
+        <v>1</v>
+      </c>
+      <c r="F20" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="H20" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="I20" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="J20" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="K20" s="47">
+        <v>0</v>
+      </c>
+      <c r="L20" s="47">
+        <v>0</v>
+      </c>
+      <c r="M20" s="45"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B21" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="48">
+        <v>1</v>
+      </c>
+      <c r="F21" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="H21" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="I21" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="J21" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="K21" s="48">
+        <v>0</v>
+      </c>
+      <c r="L21" s="48">
+        <v>0</v>
+      </c>
+      <c r="M21" s="45"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B22" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="49">
+        <v>1</v>
+      </c>
+      <c r="F22" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="H22" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="I22" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="J22" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="K22" s="49">
+        <v>0</v>
+      </c>
+      <c r="L22" s="49">
+        <v>0</v>
+      </c>
+      <c r="M22" s="45"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B23" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="44">
+        <v>1</v>
+      </c>
+      <c r="F23" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="H23" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="I23" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="J23" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="K23" s="44">
+        <v>0</v>
+      </c>
+      <c r="L23" s="44">
+        <v>0</v>
+      </c>
+      <c r="M23" s="45"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B24" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="44">
+        <v>1</v>
+      </c>
+      <c r="F24" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="H24" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="I24" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="J24" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="K24" s="44">
+        <v>0</v>
+      </c>
+      <c r="L24" s="44">
+        <v>0</v>
+      </c>
+      <c r="M24" s="45"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B25" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="44">
+        <v>1</v>
+      </c>
+      <c r="F25" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="H25" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="I25" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="J25" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="K25" s="44">
+        <v>0</v>
+      </c>
+      <c r="L25" s="44">
+        <v>0</v>
+      </c>
+      <c r="M25" s="45"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B26" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="E26" s="40">
+        <v>1</v>
+      </c>
+      <c r="F26" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="G26" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="H26" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="I26" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="J26" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="K26" s="50">
+        <v>0</v>
+      </c>
+      <c r="L26" s="50">
+        <v>0</v>
+      </c>
+      <c r="M26" s="45"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B27" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="40">
+        <v>1</v>
+      </c>
+      <c r="F27" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="H27" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="I27" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="J27" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="K27" s="50">
+        <v>0</v>
+      </c>
+      <c r="L27" s="50">
+        <v>0</v>
+      </c>
+      <c r="M27" s="45"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B28" s="105" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="D28" s="105" t="s">
+        <v>137</v>
+      </c>
+      <c r="E28" s="105" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" s="105" t="s">
+        <v>138</v>
+      </c>
+      <c r="G28" s="105" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" s="105" t="s">
+        <v>44</v>
+      </c>
+      <c r="I28" s="105" t="s">
+        <v>132</v>
+      </c>
+      <c r="J28" s="105" t="s">
+        <v>45</v>
+      </c>
+      <c r="K28" s="105" t="s">
+        <v>46</v>
+      </c>
+      <c r="L28" s="105" t="s">
+        <v>47</v>
+      </c>
+      <c r="M28" s="105" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="5" spans="2:13">
-      <c r="B5" s="45" t="s">
-        <v>135</v>
-      </c>
-      <c r="C5" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="D5" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="E5" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="45" t="s">
-        <v>138</v>
-      </c>
-      <c r="G5" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="J5" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="L5" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="M5" s="45"/>
-    </row>
-    <row r="6" spans="2:13">
-      <c r="B6" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="46" t="s">
+      <c r="N28" s="105" t="s">
+        <v>318</v>
+      </c>
+      <c r="O28" s="105" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B29" s="106" t="s">
+        <v>263</v>
+      </c>
+      <c r="C29" s="106" t="s">
+        <v>320</v>
+      </c>
+      <c r="D29" s="106" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="106">
+        <v>1</v>
+      </c>
+      <c r="F29" s="106" t="s">
+        <v>321</v>
+      </c>
+      <c r="G29" s="106" t="s">
+        <v>322</v>
+      </c>
+      <c r="H29" s="106" t="s">
+        <v>59</v>
+      </c>
+      <c r="I29" s="106" t="s">
+        <v>59</v>
+      </c>
+      <c r="J29" s="106" t="s">
+        <v>133</v>
+      </c>
+      <c r="K29" s="106">
+        <v>0</v>
+      </c>
+      <c r="L29" s="106">
+        <v>0</v>
+      </c>
+      <c r="M29" s="106" t="s">
+        <v>324</v>
+      </c>
+      <c r="N29" s="106" t="s">
+        <v>325</v>
+      </c>
+      <c r="O29" s="107" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B30" s="106" t="s">
+        <v>272</v>
+      </c>
+      <c r="C30" s="106" t="s">
+        <v>320</v>
+      </c>
+      <c r="D30" s="106" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="106">
+        <v>1</v>
+      </c>
+      <c r="F30" s="106" t="s">
+        <v>321</v>
+      </c>
+      <c r="G30" s="106" t="s">
+        <v>322</v>
+      </c>
+      <c r="H30" s="106" t="s">
+        <v>141</v>
+      </c>
+      <c r="I30" s="106" t="s">
+        <v>141</v>
+      </c>
+      <c r="J30" s="106" t="s">
+        <v>133</v>
+      </c>
+      <c r="K30" s="106">
+        <v>0</v>
+      </c>
+      <c r="L30" s="106">
+        <v>0</v>
+      </c>
+      <c r="M30" s="106" t="s">
+        <v>326</v>
+      </c>
+      <c r="N30" s="106" t="s">
+        <v>327</v>
+      </c>
+      <c r="O30" s="107" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B31" s="107" t="s">
+        <v>328</v>
+      </c>
+      <c r="C31" s="107" t="s">
+        <v>320</v>
+      </c>
+      <c r="D31" s="107" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E31" s="107">
         <v>1</v>
       </c>
-      <c r="F6" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="H6" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="I6" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="J6" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="K6" s="46">
+      <c r="F31" s="107" t="s">
+        <v>321</v>
+      </c>
+      <c r="G31" s="107" t="s">
+        <v>322</v>
+      </c>
+      <c r="H31" s="107" t="s">
+        <v>141</v>
+      </c>
+      <c r="I31" s="107" t="s">
+        <v>141</v>
+      </c>
+      <c r="J31" s="107" t="s">
+        <v>133</v>
+      </c>
+      <c r="K31" s="107">
         <v>0</v>
       </c>
-      <c r="L6" s="46">
+      <c r="L31" s="107">
         <v>0</v>
       </c>
-      <c r="M6" s="46"/>
-    </row>
-    <row r="7" spans="2:13">
-      <c r="B7" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="46" t="s">
+      <c r="M31" s="107" t="s">
+        <v>329</v>
+      </c>
+      <c r="N31" s="107" t="s">
+        <v>325</v>
+      </c>
+      <c r="O31" s="107" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B32" s="107" t="s">
+        <v>330</v>
+      </c>
+      <c r="C32" s="107" t="s">
+        <v>320</v>
+      </c>
+      <c r="D32" s="107" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E32" s="107">
         <v>1</v>
       </c>
-      <c r="F7" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="H7" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="J7" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="K7" s="46">
+      <c r="F32" s="107" t="s">
+        <v>321</v>
+      </c>
+      <c r="G32" s="107" t="s">
+        <v>322</v>
+      </c>
+      <c r="H32" s="107" t="s">
+        <v>141</v>
+      </c>
+      <c r="I32" s="107" t="s">
+        <v>141</v>
+      </c>
+      <c r="J32" s="107" t="s">
+        <v>133</v>
+      </c>
+      <c r="K32" s="107">
         <v>0</v>
       </c>
-      <c r="L7" s="46">
+      <c r="L32" s="107">
         <v>0</v>
       </c>
-      <c r="M7" s="46"/>
-    </row>
-    <row r="8" spans="2:13">
-      <c r="B8" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="46" t="s">
+      <c r="M32" s="107" t="s">
+        <v>331</v>
+      </c>
+      <c r="N32" s="107" t="s">
+        <v>325</v>
+      </c>
+      <c r="O32" s="107" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B33" s="107" t="s">
+        <v>332</v>
+      </c>
+      <c r="C33" s="107" t="s">
+        <v>320</v>
+      </c>
+      <c r="D33" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="46">
+      <c r="E33" s="107">
         <v>1</v>
       </c>
-      <c r="F8" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="H8" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="I8" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="J8" s="46" t="s">
+      <c r="F33" s="107" t="s">
+        <v>321</v>
+      </c>
+      <c r="G33" s="107" t="s">
+        <v>322</v>
+      </c>
+      <c r="H33" s="107" t="s">
+        <v>141</v>
+      </c>
+      <c r="I33" s="107" t="s">
+        <v>141</v>
+      </c>
+      <c r="J33" s="107" t="s">
         <v>133</v>
       </c>
-      <c r="K8" s="46">
+      <c r="K33" s="107">
         <v>0</v>
       </c>
-      <c r="L8" s="46">
+      <c r="L33" s="107">
         <v>0</v>
       </c>
-      <c r="M8" s="46"/>
-    </row>
-    <row r="9" spans="2:13">
-      <c r="B9" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="46" t="s">
+      <c r="M33" s="107" t="s">
+        <v>333</v>
+      </c>
+      <c r="N33" s="107" t="s">
+        <v>325</v>
+      </c>
+      <c r="O33" s="107" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B34" s="107" t="s">
+        <v>334</v>
+      </c>
+      <c r="C34" s="107" t="s">
+        <v>320</v>
+      </c>
+      <c r="D34" s="107" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="46">
+      <c r="E34" s="107">
         <v>1</v>
       </c>
-      <c r="F9" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="H9" s="46" t="s">
+      <c r="F34" s="107" t="s">
+        <v>321</v>
+      </c>
+      <c r="G34" s="107" t="s">
+        <v>322</v>
+      </c>
+      <c r="H34" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="I9" s="46" t="s">
+      <c r="I34" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="J9" s="46" t="s">
+      <c r="J34" s="107" t="s">
         <v>133</v>
       </c>
-      <c r="K9" s="46">
+      <c r="K34" s="107">
         <v>0</v>
       </c>
-      <c r="L9" s="46">
+      <c r="L34" s="107">
         <v>0</v>
       </c>
-      <c r="M9" s="46"/>
-    </row>
-    <row r="10" spans="2:13">
-      <c r="B10" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="46" t="s">
+      <c r="M34" s="107" t="s">
+        <v>335</v>
+      </c>
+      <c r="N34" s="107" t="s">
+        <v>325</v>
+      </c>
+      <c r="O34" s="107" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B35" s="107" t="s">
+        <v>336</v>
+      </c>
+      <c r="C35" s="107" t="s">
+        <v>320</v>
+      </c>
+      <c r="D35" s="107" t="s">
         <v>140</v>
       </c>
-      <c r="E10" s="46">
+      <c r="E35" s="107">
         <v>1</v>
       </c>
-      <c r="F10" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="H10" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="I10" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="J10" s="46" t="s">
+      <c r="F35" s="107" t="s">
+        <v>321</v>
+      </c>
+      <c r="G35" s="107" t="s">
+        <v>322</v>
+      </c>
+      <c r="H35" s="107" t="s">
+        <v>63</v>
+      </c>
+      <c r="I35" s="107" t="s">
+        <v>63</v>
+      </c>
+      <c r="J35" s="107" t="s">
         <v>133</v>
       </c>
-      <c r="K10" s="46">
+      <c r="K35" s="107">
         <v>0</v>
       </c>
-      <c r="L10" s="46">
+      <c r="L35" s="107">
         <v>0</v>
       </c>
-      <c r="M10" s="46"/>
-    </row>
-    <row r="11" spans="2:13">
-      <c r="B11" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="C11" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="46" t="s">
+      <c r="M35" s="107" t="s">
+        <v>337</v>
+      </c>
+      <c r="N35" s="107" t="s">
+        <v>325</v>
+      </c>
+      <c r="O35" s="107" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B36" s="107" t="s">
+        <v>338</v>
+      </c>
+      <c r="C36" s="107" t="s">
+        <v>320</v>
+      </c>
+      <c r="D36" s="107" t="s">
         <v>143</v>
       </c>
-      <c r="E11" s="46">
+      <c r="E36" s="107">
         <v>1</v>
       </c>
-      <c r="F11" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="H11" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="I11" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="J11" s="46" t="s">
+      <c r="F36" s="107" t="s">
+        <v>321</v>
+      </c>
+      <c r="G36" s="107" t="s">
+        <v>322</v>
+      </c>
+      <c r="H36" s="107" t="s">
+        <v>63</v>
+      </c>
+      <c r="I36" s="107" t="s">
+        <v>63</v>
+      </c>
+      <c r="J36" s="107" t="s">
         <v>133</v>
       </c>
-      <c r="K11" s="46">
+      <c r="K36" s="107">
         <v>0</v>
       </c>
-      <c r="L11" s="46">
+      <c r="L36" s="107">
         <v>0</v>
       </c>
-      <c r="M11" s="46"/>
-    </row>
-    <row r="12" spans="2:13">
-      <c r="B12" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="C12" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="46" t="s">
+      <c r="M36" s="107" t="s">
+        <v>339</v>
+      </c>
+      <c r="N36" s="107" t="s">
+        <v>325</v>
+      </c>
+      <c r="O36" s="107" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B37" s="107" t="s">
+        <v>340</v>
+      </c>
+      <c r="C37" s="107" t="s">
+        <v>320</v>
+      </c>
+      <c r="D37" s="107" t="s">
         <v>145</v>
       </c>
-      <c r="E12" s="46">
+      <c r="E37" s="107">
         <v>1</v>
       </c>
-      <c r="F12" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="H12" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="I12" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="J12" s="46" t="s">
-        <v>133</v>
-      </c>
-      <c r="K12" s="46">
+      <c r="F37" s="107" t="s">
+        <v>321</v>
+      </c>
+      <c r="G37" s="107" t="s">
+        <v>322</v>
+      </c>
+      <c r="H37" s="107" t="s">
+        <v>66</v>
+      </c>
+      <c r="I37" s="107" t="s">
+        <v>66</v>
+      </c>
+      <c r="J37" s="107" t="s">
+        <v>60</v>
+      </c>
+      <c r="K37" s="107">
         <v>0</v>
       </c>
-      <c r="L12" s="46">
+      <c r="L37" s="107">
         <v>0</v>
       </c>
-      <c r="M12" s="46"/>
-    </row>
-    <row r="13" spans="2:13">
-      <c r="B13" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="C13" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="46" t="s">
+      <c r="M37" s="107" t="s">
+        <v>341</v>
+      </c>
+      <c r="N37" s="107" t="s">
+        <v>325</v>
+      </c>
+      <c r="O37" s="107" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B38" s="107" t="s">
+        <v>342</v>
+      </c>
+      <c r="C38" s="107" t="s">
+        <v>320</v>
+      </c>
+      <c r="D38" s="107" t="s">
         <v>147</v>
       </c>
-      <c r="E13" s="46">
+      <c r="E38" s="107">
         <v>1</v>
       </c>
-      <c r="F13" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="H13" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="I13" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="J13" s="46" t="s">
-        <v>133</v>
-      </c>
-      <c r="K13" s="46">
+      <c r="F38" s="107" t="s">
+        <v>321</v>
+      </c>
+      <c r="G38" s="107" t="s">
+        <v>322</v>
+      </c>
+      <c r="H38" s="107" t="s">
+        <v>66</v>
+      </c>
+      <c r="I38" s="107" t="s">
+        <v>66</v>
+      </c>
+      <c r="J38" s="107" t="s">
+        <v>60</v>
+      </c>
+      <c r="K38" s="107">
         <v>0</v>
       </c>
-      <c r="L13" s="46">
+      <c r="L38" s="107">
         <v>0</v>
       </c>
-      <c r="M13" s="46"/>
-    </row>
-    <row r="14" spans="2:13">
-      <c r="B14" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="C14" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="46" t="s">
+      <c r="M38" s="107" t="s">
+        <v>343</v>
+      </c>
+      <c r="N38" s="107" t="s">
+        <v>325</v>
+      </c>
+      <c r="O38" s="107" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B39" s="107" t="s">
+        <v>344</v>
+      </c>
+      <c r="C39" s="107" t="s">
+        <v>320</v>
+      </c>
+      <c r="D39" s="107" t="s">
         <v>149</v>
       </c>
-      <c r="E14" s="46">
+      <c r="E39" s="107">
         <v>1</v>
       </c>
-      <c r="F14" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="H14" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="I14" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="J14" s="46" t="s">
-        <v>133</v>
-      </c>
-      <c r="K14" s="46">
+      <c r="F39" s="107" t="s">
+        <v>321</v>
+      </c>
+      <c r="G39" s="107" t="s">
+        <v>322</v>
+      </c>
+      <c r="H39" s="107" t="s">
+        <v>66</v>
+      </c>
+      <c r="I39" s="107" t="s">
+        <v>66</v>
+      </c>
+      <c r="J39" s="107" t="s">
+        <v>60</v>
+      </c>
+      <c r="K39" s="107">
         <v>0</v>
       </c>
-      <c r="L14" s="46">
+      <c r="L39" s="107">
         <v>0</v>
       </c>
-      <c r="M14" s="46"/>
-    </row>
-    <row r="15" spans="2:13">
-      <c r="B15" s="46" t="s">
-        <v>150</v>
-      </c>
-      <c r="C15" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="46" t="s">
+      <c r="M39" s="107" t="s">
+        <v>345</v>
+      </c>
+      <c r="N39" s="107" t="s">
+        <v>325</v>
+      </c>
+      <c r="O39" s="107" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B40" s="107" t="s">
+        <v>346</v>
+      </c>
+      <c r="C40" s="107" t="s">
+        <v>320</v>
+      </c>
+      <c r="D40" s="107" t="s">
         <v>151</v>
       </c>
-      <c r="E15" s="46">
+      <c r="E40" s="107">
         <v>1</v>
       </c>
-      <c r="F15" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="H15" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="I15" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="J15" s="46" t="s">
-        <v>133</v>
-      </c>
-      <c r="K15" s="46">
+      <c r="F40" s="107" t="s">
+        <v>321</v>
+      </c>
+      <c r="G40" s="107" t="s">
+        <v>322</v>
+      </c>
+      <c r="H40" s="107" t="s">
+        <v>66</v>
+      </c>
+      <c r="I40" s="107" t="s">
+        <v>66</v>
+      </c>
+      <c r="J40" s="107" t="s">
+        <v>60</v>
+      </c>
+      <c r="K40" s="107">
         <v>0</v>
       </c>
-      <c r="L15" s="46">
+      <c r="L40" s="107">
         <v>0</v>
       </c>
-      <c r="M15" s="46"/>
-    </row>
-    <row r="16" spans="2:13">
-      <c r="B16" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="47">
-        <v>1</v>
-      </c>
-      <c r="F16" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="H16" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="I16" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="J16" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="K16" s="47">
-        <v>0</v>
-      </c>
-      <c r="L16" s="47">
-        <v>0</v>
-      </c>
-      <c r="M16" s="46"/>
-    </row>
-    <row r="17" spans="2:15">
-      <c r="B17" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="47">
-        <v>1</v>
-      </c>
-      <c r="F17" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="G17" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="H17" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="I17" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="J17" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="K17" s="47">
-        <v>0</v>
-      </c>
-      <c r="L17" s="47">
-        <v>0</v>
-      </c>
-      <c r="M17" s="46"/>
-    </row>
-    <row r="18" spans="2:15">
-      <c r="B18" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="47">
-        <v>1</v>
-      </c>
-      <c r="F18" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="G18" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="H18" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="I18" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="J18" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="K18" s="47">
-        <v>0</v>
-      </c>
-      <c r="L18" s="47">
-        <v>0</v>
-      </c>
-      <c r="M18" s="46"/>
-    </row>
-    <row r="19" spans="2:15">
-      <c r="B19" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="48">
-        <v>1</v>
-      </c>
-      <c r="F19" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="G19" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="H19" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="I19" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="J19" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="K19" s="48">
-        <v>0</v>
-      </c>
-      <c r="L19" s="48">
-        <v>0</v>
-      </c>
-      <c r="M19" s="46"/>
-    </row>
-    <row r="20" spans="2:15">
-      <c r="B20" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20" s="48">
-        <v>1</v>
-      </c>
-      <c r="F20" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="H20" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="I20" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="J20" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="K20" s="48">
-        <v>0</v>
-      </c>
-      <c r="L20" s="48">
-        <v>0</v>
-      </c>
-      <c r="M20" s="46"/>
-    </row>
-    <row r="21" spans="2:15">
-      <c r="B21" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="49" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="49">
-        <v>1</v>
-      </c>
-      <c r="F21" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="H21" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="I21" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="J21" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="K21" s="49">
-        <v>0</v>
-      </c>
-      <c r="L21" s="49">
-        <v>0</v>
-      </c>
-      <c r="M21" s="46"/>
-    </row>
-    <row r="22" spans="2:15">
-      <c r="B22" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" s="50">
-        <v>1</v>
-      </c>
-      <c r="F22" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="G22" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="H22" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="I22" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="J22" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="K22" s="50">
-        <v>0</v>
-      </c>
-      <c r="L22" s="50">
-        <v>0</v>
-      </c>
-      <c r="M22" s="46"/>
-    </row>
-    <row r="23" spans="2:15">
-      <c r="B23" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="E23" s="45">
-        <v>1</v>
-      </c>
-      <c r="F23" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="G23" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="H23" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="I23" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="J23" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="K23" s="45">
-        <v>0</v>
-      </c>
-      <c r="L23" s="45">
-        <v>0</v>
-      </c>
-      <c r="M23" s="46"/>
-    </row>
-    <row r="24" spans="2:15">
-      <c r="B24" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="E24" s="45">
-        <v>1</v>
-      </c>
-      <c r="F24" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="G24" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="H24" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="I24" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="J24" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="K24" s="45">
-        <v>0</v>
-      </c>
-      <c r="L24" s="45">
-        <v>0</v>
-      </c>
-      <c r="M24" s="46"/>
-    </row>
-    <row r="25" spans="2:15">
-      <c r="B25" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" s="45">
-        <v>1</v>
-      </c>
-      <c r="F25" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="G25" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="H25" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="I25" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="J25" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="K25" s="45">
-        <v>0</v>
-      </c>
-      <c r="L25" s="45">
-        <v>0</v>
-      </c>
-      <c r="M25" s="46"/>
-    </row>
-    <row r="26" spans="2:15">
-      <c r="B26" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="C26" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="E26" s="41">
-        <v>1</v>
-      </c>
-      <c r="F26" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="G26" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="H26" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="I26" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="J26" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="K26" s="51">
-        <v>0</v>
-      </c>
-      <c r="L26" s="51">
-        <v>0</v>
-      </c>
-      <c r="M26" s="46"/>
-    </row>
-    <row r="27" spans="2:15">
-      <c r="B27" s="41" t="s">
-        <v>104</v>
-      </c>
-      <c r="C27" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="E27" s="41">
-        <v>1</v>
-      </c>
-      <c r="F27" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="G27" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="H27" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="I27" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="J27" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="K27" s="51">
-        <v>0</v>
-      </c>
-      <c r="L27" s="51">
-        <v>0</v>
-      </c>
-      <c r="M27" s="46"/>
-    </row>
-    <row r="28" spans="2:15">
-      <c r="B28" s="110" t="s">
-        <v>135</v>
-      </c>
-      <c r="C28" s="110" t="s">
-        <v>136</v>
-      </c>
-      <c r="D28" s="110" t="s">
-        <v>137</v>
-      </c>
-      <c r="E28" s="110" t="s">
-        <v>43</v>
-      </c>
-      <c r="F28" s="110" t="s">
-        <v>138</v>
-      </c>
-      <c r="G28" s="110" t="s">
-        <v>41</v>
-      </c>
-      <c r="H28" s="110" t="s">
-        <v>44</v>
-      </c>
-      <c r="I28" s="110" t="s">
-        <v>132</v>
-      </c>
-      <c r="J28" s="110" t="s">
-        <v>45</v>
-      </c>
-      <c r="K28" s="110" t="s">
-        <v>46</v>
-      </c>
-      <c r="L28" s="110" t="s">
-        <v>47</v>
-      </c>
-      <c r="M28" s="110" t="s">
-        <v>324</v>
-      </c>
-      <c r="N28" s="110" t="s">
+      <c r="M40" s="107" t="s">
+        <v>347</v>
+      </c>
+      <c r="N40" s="107" t="s">
         <v>325</v>
       </c>
-      <c r="O28" s="110" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="29" spans="2:15">
-      <c r="B29" s="111" t="s">
-        <v>270</v>
-      </c>
-      <c r="C29" s="111" t="s">
-        <v>327</v>
-      </c>
-      <c r="D29" s="111" t="s">
-        <v>71</v>
-      </c>
-      <c r="E29" s="111">
-        <v>1</v>
-      </c>
-      <c r="F29" s="111" t="s">
-        <v>328</v>
-      </c>
-      <c r="G29" s="111" t="s">
-        <v>329</v>
-      </c>
-      <c r="H29" s="111" t="s">
-        <v>59</v>
-      </c>
-      <c r="I29" s="111" t="s">
-        <v>59</v>
-      </c>
-      <c r="J29" s="111" t="s">
-        <v>133</v>
-      </c>
-      <c r="K29" s="111">
-        <v>0</v>
-      </c>
-      <c r="L29" s="111">
-        <v>0</v>
-      </c>
-      <c r="M29" s="111" t="s">
-        <v>331</v>
-      </c>
-      <c r="N29" s="111" t="s">
-        <v>332</v>
-      </c>
-      <c r="O29" s="112" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15">
-      <c r="B30" s="111" t="s">
-        <v>279</v>
-      </c>
-      <c r="C30" s="111" t="s">
-        <v>327</v>
-      </c>
-      <c r="D30" s="111" t="s">
-        <v>79</v>
-      </c>
-      <c r="E30" s="111">
-        <v>1</v>
-      </c>
-      <c r="F30" s="111" t="s">
-        <v>328</v>
-      </c>
-      <c r="G30" s="111" t="s">
-        <v>329</v>
-      </c>
-      <c r="H30" s="111" t="s">
-        <v>141</v>
-      </c>
-      <c r="I30" s="111" t="s">
-        <v>141</v>
-      </c>
-      <c r="J30" s="111" t="s">
-        <v>133</v>
-      </c>
-      <c r="K30" s="111">
-        <v>0</v>
-      </c>
-      <c r="L30" s="111">
-        <v>0</v>
-      </c>
-      <c r="M30" s="111" t="s">
-        <v>333</v>
-      </c>
-      <c r="N30" s="111" t="s">
-        <v>334</v>
-      </c>
-      <c r="O30" s="112" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="31" spans="2:15">
-      <c r="B31" s="112" t="s">
-        <v>335</v>
-      </c>
-      <c r="C31" s="112" t="s">
-        <v>327</v>
-      </c>
-      <c r="D31" s="112" t="s">
-        <v>50</v>
-      </c>
-      <c r="E31" s="112">
-        <v>1</v>
-      </c>
-      <c r="F31" s="112" t="s">
-        <v>328</v>
-      </c>
-      <c r="G31" s="112" t="s">
-        <v>329</v>
-      </c>
-      <c r="H31" s="112" t="s">
-        <v>141</v>
-      </c>
-      <c r="I31" s="112" t="s">
-        <v>141</v>
-      </c>
-      <c r="J31" s="112" t="s">
-        <v>133</v>
-      </c>
-      <c r="K31" s="112">
-        <v>0</v>
-      </c>
-      <c r="L31" s="112">
-        <v>0</v>
-      </c>
-      <c r="M31" s="112" t="s">
-        <v>336</v>
-      </c>
-      <c r="N31" s="112" t="s">
-        <v>332</v>
-      </c>
-      <c r="O31" s="112" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="32" spans="2:15">
-      <c r="B32" s="112" t="s">
-        <v>337</v>
-      </c>
-      <c r="C32" s="112" t="s">
-        <v>327</v>
-      </c>
-      <c r="D32" s="112" t="s">
-        <v>55</v>
-      </c>
-      <c r="E32" s="112">
-        <v>1</v>
-      </c>
-      <c r="F32" s="112" t="s">
-        <v>328</v>
-      </c>
-      <c r="G32" s="112" t="s">
-        <v>329</v>
-      </c>
-      <c r="H32" s="112" t="s">
-        <v>141</v>
-      </c>
-      <c r="I32" s="112" t="s">
-        <v>141</v>
-      </c>
-      <c r="J32" s="112" t="s">
-        <v>133</v>
-      </c>
-      <c r="K32" s="112">
-        <v>0</v>
-      </c>
-      <c r="L32" s="112">
-        <v>0</v>
-      </c>
-      <c r="M32" s="112" t="s">
-        <v>338</v>
-      </c>
-      <c r="N32" s="112" t="s">
-        <v>332</v>
-      </c>
-      <c r="O32" s="112" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15">
-      <c r="B33" s="112" t="s">
-        <v>339</v>
-      </c>
-      <c r="C33" s="112" t="s">
-        <v>327</v>
-      </c>
-      <c r="D33" s="112" t="s">
-        <v>58</v>
-      </c>
-      <c r="E33" s="112">
-        <v>1</v>
-      </c>
-      <c r="F33" s="112" t="s">
-        <v>328</v>
-      </c>
-      <c r="G33" s="112" t="s">
-        <v>329</v>
-      </c>
-      <c r="H33" s="112" t="s">
-        <v>141</v>
-      </c>
-      <c r="I33" s="112" t="s">
-        <v>141</v>
-      </c>
-      <c r="J33" s="112" t="s">
-        <v>133</v>
-      </c>
-      <c r="K33" s="112">
-        <v>0</v>
-      </c>
-      <c r="L33" s="112">
-        <v>0</v>
-      </c>
-      <c r="M33" s="112" t="s">
-        <v>340</v>
-      </c>
-      <c r="N33" s="112" t="s">
-        <v>332</v>
-      </c>
-      <c r="O33" s="112" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15">
-      <c r="B34" s="112" t="s">
-        <v>341</v>
-      </c>
-      <c r="C34" s="112" t="s">
-        <v>327</v>
-      </c>
-      <c r="D34" s="112" t="s">
-        <v>62</v>
-      </c>
-      <c r="E34" s="112">
-        <v>1</v>
-      </c>
-      <c r="F34" s="112" t="s">
-        <v>328</v>
-      </c>
-      <c r="G34" s="112" t="s">
-        <v>329</v>
-      </c>
-      <c r="H34" s="112" t="s">
-        <v>63</v>
-      </c>
-      <c r="I34" s="112" t="s">
-        <v>63</v>
-      </c>
-      <c r="J34" s="112" t="s">
-        <v>133</v>
-      </c>
-      <c r="K34" s="112">
-        <v>0</v>
-      </c>
-      <c r="L34" s="112">
-        <v>0</v>
-      </c>
-      <c r="M34" s="112" t="s">
-        <v>342</v>
-      </c>
-      <c r="N34" s="112" t="s">
-        <v>332</v>
-      </c>
-      <c r="O34" s="112" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="35" spans="2:15">
-      <c r="B35" s="112" t="s">
-        <v>343</v>
-      </c>
-      <c r="C35" s="112" t="s">
-        <v>327</v>
-      </c>
-      <c r="D35" s="112" t="s">
-        <v>140</v>
-      </c>
-      <c r="E35" s="112">
-        <v>1</v>
-      </c>
-      <c r="F35" s="112" t="s">
-        <v>328</v>
-      </c>
-      <c r="G35" s="112" t="s">
-        <v>329</v>
-      </c>
-      <c r="H35" s="112" t="s">
-        <v>63</v>
-      </c>
-      <c r="I35" s="112" t="s">
-        <v>63</v>
-      </c>
-      <c r="J35" s="112" t="s">
-        <v>133</v>
-      </c>
-      <c r="K35" s="112">
-        <v>0</v>
-      </c>
-      <c r="L35" s="112">
-        <v>0</v>
-      </c>
-      <c r="M35" s="112" t="s">
-        <v>344</v>
-      </c>
-      <c r="N35" s="112" t="s">
-        <v>332</v>
-      </c>
-      <c r="O35" s="112" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="36" spans="2:15">
-      <c r="B36" s="112" t="s">
-        <v>345</v>
-      </c>
-      <c r="C36" s="112" t="s">
-        <v>327</v>
-      </c>
-      <c r="D36" s="112" t="s">
-        <v>143</v>
-      </c>
-      <c r="E36" s="112">
-        <v>1</v>
-      </c>
-      <c r="F36" s="112" t="s">
-        <v>328</v>
-      </c>
-      <c r="G36" s="112" t="s">
-        <v>329</v>
-      </c>
-      <c r="H36" s="112" t="s">
-        <v>63</v>
-      </c>
-      <c r="I36" s="112" t="s">
-        <v>63</v>
-      </c>
-      <c r="J36" s="112" t="s">
-        <v>133</v>
-      </c>
-      <c r="K36" s="112">
-        <v>0</v>
-      </c>
-      <c r="L36" s="112">
-        <v>0</v>
-      </c>
-      <c r="M36" s="112" t="s">
-        <v>346</v>
-      </c>
-      <c r="N36" s="112" t="s">
-        <v>332</v>
-      </c>
-      <c r="O36" s="112" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15">
-      <c r="B37" s="112" t="s">
-        <v>347</v>
-      </c>
-      <c r="C37" s="112" t="s">
-        <v>327</v>
-      </c>
-      <c r="D37" s="112" t="s">
-        <v>145</v>
-      </c>
-      <c r="E37" s="112">
-        <v>1</v>
-      </c>
-      <c r="F37" s="112" t="s">
-        <v>328</v>
-      </c>
-      <c r="G37" s="112" t="s">
-        <v>329</v>
-      </c>
-      <c r="H37" s="112" t="s">
-        <v>66</v>
-      </c>
-      <c r="I37" s="112" t="s">
-        <v>66</v>
-      </c>
-      <c r="J37" s="112" t="s">
-        <v>60</v>
-      </c>
-      <c r="K37" s="112">
-        <v>0</v>
-      </c>
-      <c r="L37" s="112">
-        <v>0</v>
-      </c>
-      <c r="M37" s="112" t="s">
-        <v>348</v>
-      </c>
-      <c r="N37" s="112" t="s">
-        <v>332</v>
-      </c>
-      <c r="O37" s="112" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="38" spans="2:15">
-      <c r="B38" s="112" t="s">
-        <v>349</v>
-      </c>
-      <c r="C38" s="112" t="s">
-        <v>327</v>
-      </c>
-      <c r="D38" s="112" t="s">
-        <v>147</v>
-      </c>
-      <c r="E38" s="112">
-        <v>1</v>
-      </c>
-      <c r="F38" s="112" t="s">
-        <v>328</v>
-      </c>
-      <c r="G38" s="112" t="s">
-        <v>329</v>
-      </c>
-      <c r="H38" s="112" t="s">
-        <v>66</v>
-      </c>
-      <c r="I38" s="112" t="s">
-        <v>66</v>
-      </c>
-      <c r="J38" s="112" t="s">
-        <v>60</v>
-      </c>
-      <c r="K38" s="112">
-        <v>0</v>
-      </c>
-      <c r="L38" s="112">
-        <v>0</v>
-      </c>
-      <c r="M38" s="112" t="s">
-        <v>350</v>
-      </c>
-      <c r="N38" s="112" t="s">
-        <v>332</v>
-      </c>
-      <c r="O38" s="112" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15">
-      <c r="B39" s="112" t="s">
+      <c r="O40" s="107" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B41" s="109"/>
+      <c r="D41" s="108"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B42" s="108" t="s">
         <v>351</v>
       </c>
-      <c r="C39" s="112" t="s">
-        <v>327</v>
-      </c>
-      <c r="D39" s="112" t="s">
-        <v>149</v>
-      </c>
-      <c r="E39" s="112">
-        <v>1</v>
-      </c>
-      <c r="F39" s="112" t="s">
-        <v>328</v>
-      </c>
-      <c r="G39" s="112" t="s">
-        <v>329</v>
-      </c>
-      <c r="H39" s="112" t="s">
-        <v>66</v>
-      </c>
-      <c r="I39" s="112" t="s">
-        <v>66</v>
-      </c>
-      <c r="J39" s="112" t="s">
-        <v>60</v>
-      </c>
-      <c r="K39" s="112">
-        <v>0</v>
-      </c>
-      <c r="L39" s="112">
-        <v>0</v>
-      </c>
-      <c r="M39" s="112" t="s">
-        <v>352</v>
-      </c>
-      <c r="N39" s="112" t="s">
-        <v>332</v>
-      </c>
-      <c r="O39" s="112" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="40" spans="2:15">
-      <c r="B40" s="112" t="s">
-        <v>353</v>
-      </c>
-      <c r="C40" s="112" t="s">
-        <v>327</v>
-      </c>
-      <c r="D40" s="112" t="s">
-        <v>151</v>
-      </c>
-      <c r="E40" s="112">
-        <v>1</v>
-      </c>
-      <c r="F40" s="112" t="s">
-        <v>328</v>
-      </c>
-      <c r="G40" s="112" t="s">
-        <v>329</v>
-      </c>
-      <c r="H40" s="112" t="s">
-        <v>66</v>
-      </c>
-      <c r="I40" s="112" t="s">
-        <v>66</v>
-      </c>
-      <c r="J40" s="112" t="s">
-        <v>60</v>
-      </c>
-      <c r="K40" s="112">
-        <v>0</v>
-      </c>
-      <c r="L40" s="112">
-        <v>0</v>
-      </c>
-      <c r="M40" s="112" t="s">
-        <v>354</v>
-      </c>
-      <c r="N40" s="112" t="s">
-        <v>332</v>
-      </c>
-      <c r="O40" s="112" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="41" spans="2:15">
-      <c r="B41" s="114"/>
-      <c r="D41" s="113"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Test Data/Salesforce - Test Scenarios_V3.xlsx
+++ b/Test Data/Salesforce - Test Scenarios_V3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AnithaB\git\Saviynt\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7995C78-2C43-493B-8D62-FF283D69C621}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CC8145-477E-4E25-B625-6818BA40B2D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12420" windowHeight="2080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="359">
   <si>
     <t>SAVIYNT - User Testing Scenario's (Business)</t>
   </si>
@@ -516,9 +516,6 @@
 R2
 R4
 R5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upstream|Backbone|AGT|Warehouse Specialist </t>
   </si>
   <si>
     <t>Upstream|Backbone|AGT|Inventory Specialist</t>
@@ -1967,6 +1964,45 @@
     <xf numFmtId="49" fontId="0" fillId="13" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2008,45 +2044,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2392,8 +2389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2420,12 +2417,12 @@
   <sheetData>
     <row r="1" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="127"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="113"/>
       <c r="F1" s="38"/>
       <c r="G1" s="25"/>
       <c r="H1" s="25"/>
@@ -2478,15 +2475,15 @@
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
       <c r="V2" s="4"/>
-      <c r="W2" s="128"/>
-      <c r="X2" s="129"/>
-      <c r="Y2" s="129"/>
-      <c r="Z2" s="129"/>
-      <c r="AA2" s="129"/>
-      <c r="AB2" s="129"/>
-      <c r="AC2" s="129"/>
-      <c r="AD2" s="129"/>
-      <c r="AE2" s="130"/>
+      <c r="W2" s="114"/>
+      <c r="X2" s="115"/>
+      <c r="Y2" s="115"/>
+      <c r="Z2" s="115"/>
+      <c r="AA2" s="115"/>
+      <c r="AB2" s="115"/>
+      <c r="AC2" s="115"/>
+      <c r="AD2" s="115"/>
+      <c r="AE2" s="116"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
     </row>
@@ -2498,23 +2495,23 @@
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="26"/>
-      <c r="H3" s="131" t="s">
+      <c r="H3" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="132"/>
-      <c r="J3" s="132"/>
-      <c r="K3" s="132"/>
-      <c r="L3" s="132"/>
-      <c r="M3" s="133"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="118"/>
+      <c r="L3" s="118"/>
+      <c r="M3" s="119"/>
       <c r="N3" s="34"/>
       <c r="O3" s="39"/>
-      <c r="P3" s="134" t="s">
+      <c r="P3" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="135"/>
-      <c r="R3" s="135"/>
-      <c r="S3" s="135"/>
-      <c r="T3" s="136" t="s">
+      <c r="Q3" s="121"/>
+      <c r="R3" s="121"/>
+      <c r="S3" s="121"/>
+      <c r="T3" s="122" t="s">
         <v>3</v>
       </c>
       <c r="U3" s="37"/>
@@ -2524,15 +2521,15 @@
       <c r="W3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="X3" s="137" t="s">
+      <c r="X3" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="Y3" s="138"/>
-      <c r="Z3" s="138"/>
-      <c r="AA3" s="138"/>
-      <c r="AB3" s="138"/>
-      <c r="AC3" s="138"/>
-      <c r="AD3" s="138"/>
+      <c r="Y3" s="124"/>
+      <c r="Z3" s="124"/>
+      <c r="AA3" s="124"/>
+      <c r="AB3" s="124"/>
+      <c r="AC3" s="124"/>
+      <c r="AD3" s="124"/>
       <c r="AE3" s="14"/>
       <c r="AF3" s="14" t="s">
         <v>7</v>
@@ -2595,7 +2592,7 @@
       <c r="S4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="T4" s="136"/>
+      <c r="T4" s="122"/>
       <c r="U4" s="37"/>
       <c r="V4" s="13"/>
       <c r="W4" s="8"/>
@@ -2686,10 +2683,10 @@
         <v>78</v>
       </c>
       <c r="H6" s="52" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I6" s="53" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J6" s="53" t="s">
         <v>97</v>
@@ -2705,7 +2702,7 @@
       </c>
       <c r="N6" s="57"/>
       <c r="O6" s="85" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="P6" s="53" t="s">
         <v>29</v>
@@ -2741,16 +2738,16 @@
       <c r="AG6" s="57"/>
     </row>
     <row r="7" spans="1:33" s="58" customFormat="1" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="129" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="117" t="s">
+      <c r="B7" s="130" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="117" t="s">
+      <c r="C7" s="130" t="s">
         <v>99</v>
       </c>
-      <c r="D7" s="118" t="s">
+      <c r="D7" s="131" t="s">
         <v>85</v>
       </c>
       <c r="E7" s="59" t="s">
@@ -2761,13 +2758,13 @@
         <v>81</v>
       </c>
       <c r="H7" s="52" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I7" s="53" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J7" s="61" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K7" s="60" t="s">
         <v>72</v>
@@ -2779,7 +2776,7 @@
         <v>30</v>
       </c>
       <c r="N7" s="62"/>
-      <c r="O7" s="121" t="s">
+      <c r="O7" s="134" t="s">
         <v>130</v>
       </c>
       <c r="P7" s="60" t="s">
@@ -2798,7 +2795,7 @@
         <v>30</v>
       </c>
       <c r="U7" s="60"/>
-      <c r="V7" s="119" t="s">
+      <c r="V7" s="132" t="s">
         <v>33</v>
       </c>
       <c r="W7" s="63" t="s">
@@ -2816,10 +2813,10 @@
       <c r="AG7" s="62"/>
     </row>
     <row r="8" spans="1:33" s="58" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="116"/>
-      <c r="B8" s="117"/>
-      <c r="C8" s="117"/>
-      <c r="D8" s="118"/>
+      <c r="A8" s="129"/>
+      <c r="B8" s="130"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="131"/>
       <c r="E8" s="59" t="s">
         <v>34</v>
       </c>
@@ -2828,10 +2825,10 @@
         <v>81</v>
       </c>
       <c r="H8" s="52" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I8" s="53" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J8" s="60" t="s">
         <v>72</v>
@@ -2842,7 +2839,7 @@
         <v>30</v>
       </c>
       <c r="N8" s="62"/>
-      <c r="O8" s="122"/>
+      <c r="O8" s="135"/>
       <c r="P8" s="60" t="s">
         <v>29</v>
       </c>
@@ -2853,7 +2850,7 @@
       <c r="S8" s="59"/>
       <c r="T8" s="60"/>
       <c r="U8" s="65"/>
-      <c r="V8" s="120"/>
+      <c r="V8" s="133"/>
       <c r="W8" s="63"/>
       <c r="X8" s="64"/>
       <c r="Y8" s="64"/>
@@ -2867,16 +2864,16 @@
       <c r="AG8" s="62"/>
     </row>
     <row r="9" spans="1:33" s="58" customFormat="1" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="123" t="s">
+      <c r="A9" s="136" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="124" t="s">
+      <c r="B9" s="137" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="124" t="s">
+      <c r="C9" s="137" t="s">
         <v>102</v>
       </c>
-      <c r="D9" s="125" t="s">
+      <c r="D9" s="138" t="s">
         <v>86</v>
       </c>
       <c r="E9" s="66" t="s">
@@ -2887,7 +2884,7 @@
         <v>81</v>
       </c>
       <c r="H9" s="52" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I9" s="67" t="s">
         <v>30</v>
@@ -2924,7 +2921,7 @@
         <v>30</v>
       </c>
       <c r="U9" s="69"/>
-      <c r="V9" s="114" t="s">
+      <c r="V9" s="127" t="s">
         <v>37</v>
       </c>
       <c r="W9" s="67" t="s">
@@ -2942,10 +2939,10 @@
       <c r="AG9" s="68"/>
     </row>
     <row r="10" spans="1:33" s="58" customFormat="1" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="123"/>
-      <c r="B10" s="124"/>
-      <c r="C10" s="124"/>
-      <c r="D10" s="125"/>
+      <c r="A10" s="136"/>
+      <c r="B10" s="137"/>
+      <c r="C10" s="137"/>
+      <c r="D10" s="138"/>
       <c r="E10" s="71" t="s">
         <v>37</v>
       </c>
@@ -2954,10 +2951,10 @@
         <v>81</v>
       </c>
       <c r="H10" s="52" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I10" s="53" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J10" s="72" t="s">
         <v>70</v>
@@ -2973,7 +2970,7 @@
       </c>
       <c r="N10" s="73"/>
       <c r="O10" s="68" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="P10" s="74" t="s">
         <v>29</v>
@@ -2991,7 +2988,7 @@
         <v>30</v>
       </c>
       <c r="U10" s="74"/>
-      <c r="V10" s="115"/>
+      <c r="V10" s="128"/>
       <c r="W10" s="67" t="s">
         <v>31</v>
       </c>
@@ -3027,7 +3024,7 @@
         <v>78</v>
       </c>
       <c r="H11" s="52" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I11" s="76" t="s">
         <v>30</v>
@@ -3046,7 +3043,7 @@
       </c>
       <c r="N11" s="80"/>
       <c r="O11" s="84" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="P11" s="81" t="s">
         <v>29</v>
@@ -3061,7 +3058,7 @@
         <v>29</v>
       </c>
       <c r="T11" s="76" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="U11" s="76"/>
       <c r="V11" s="76" t="s">
@@ -3084,32 +3081,32 @@
     <row r="13" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:33" ht="86.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="33" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B14" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="C14" s="22" t="s">
         <v>261</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>262</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>27</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F14" s="31"/>
       <c r="G14" s="52" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H14" s="52" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I14" s="33" t="s">
         <v>30</v>
       </c>
       <c r="J14" s="33" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K14" s="33" t="s">
         <v>30</v>
@@ -3122,7 +3119,7 @@
       </c>
       <c r="N14" s="21"/>
       <c r="O14" s="31" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="P14" s="31" t="s">
         <v>30</v>
@@ -3159,32 +3156,32 @@
     </row>
     <row r="15" spans="1:33" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="33" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B15" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="C15" s="22" t="s">
         <v>264</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="D15" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="D15" s="22" t="s">
-        <v>266</v>
-      </c>
       <c r="E15" s="31" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F15" s="32"/>
       <c r="G15" s="52" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H15" s="52" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I15" s="33" t="s">
         <v>30</v>
       </c>
       <c r="J15" s="33" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K15" s="33" t="s">
         <v>30</v>
@@ -3197,7 +3194,7 @@
       </c>
       <c r="N15" s="23"/>
       <c r="O15" s="31" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P15" s="31" t="s">
         <v>30</v>
@@ -3234,26 +3231,26 @@
     </row>
     <row r="16" spans="1:33" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="88" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B16" s="89" t="s">
+        <v>266</v>
+      </c>
+      <c r="C16" s="89" t="s">
         <v>267</v>
       </c>
-      <c r="C16" s="89" t="s">
+      <c r="D16" s="89" t="s">
         <v>268</v>
       </c>
-      <c r="D16" s="89" t="s">
-        <v>269</v>
-      </c>
       <c r="E16" s="90" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F16" s="32"/>
       <c r="G16" s="52" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H16" s="52" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I16" s="88" t="s">
         <v>30</v>
@@ -3272,7 +3269,7 @@
       </c>
       <c r="N16" s="23"/>
       <c r="O16" s="88" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="P16" s="88" t="s">
         <v>30</v>
@@ -3309,32 +3306,32 @@
     </row>
     <row r="17" spans="1:33" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="91" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B17" s="92" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C17" s="92" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D17" s="92" t="s">
         <v>27</v>
       </c>
       <c r="E17" s="91" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F17" s="91"/>
       <c r="G17" s="93" t="s">
+        <v>271</v>
+      </c>
+      <c r="H17" s="104" t="s">
+        <v>358</v>
+      </c>
+      <c r="I17" s="91" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="36" t="s">
         <v>272</v>
-      </c>
-      <c r="H17" s="104" t="s">
-        <v>359</v>
-      </c>
-      <c r="I17" s="91" t="s">
-        <v>30</v>
-      </c>
-      <c r="J17" s="36" t="s">
-        <v>273</v>
       </c>
       <c r="K17" s="91" t="s">
         <v>30</v>
@@ -3347,7 +3344,7 @@
       </c>
       <c r="N17" s="92"/>
       <c r="O17" s="94" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="P17" s="94" t="s">
         <v>30</v>
@@ -3366,10 +3363,10 @@
       </c>
       <c r="U17" s="91"/>
       <c r="V17" s="91" t="s">
+        <v>273</v>
+      </c>
+      <c r="W17" s="91" t="s">
         <v>274</v>
-      </c>
-      <c r="W17" s="91" t="s">
-        <v>275</v>
       </c>
       <c r="X17" s="95"/>
       <c r="Y17" s="24"/>
@@ -3384,32 +3381,32 @@
     </row>
     <row r="18" spans="1:33" ht="118.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="91" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B18" s="96" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C18" s="96" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D18" s="96" t="s">
+        <v>276</v>
+      </c>
+      <c r="E18" s="91" t="s">
         <v>277</v>
-      </c>
-      <c r="E18" s="91" t="s">
-        <v>278</v>
       </c>
       <c r="F18" s="91"/>
       <c r="G18" s="93" t="s">
+        <v>271</v>
+      </c>
+      <c r="H18" s="104" t="s">
+        <v>358</v>
+      </c>
+      <c r="I18" s="91" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="36" t="s">
         <v>272</v>
-      </c>
-      <c r="H18" s="104" t="s">
-        <v>359</v>
-      </c>
-      <c r="I18" s="91" t="s">
-        <v>30</v>
-      </c>
-      <c r="J18" s="36" t="s">
-        <v>273</v>
       </c>
       <c r="K18" s="91" t="s">
         <v>30</v>
@@ -3422,7 +3419,7 @@
       </c>
       <c r="N18" s="92"/>
       <c r="O18" s="94" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="P18" s="94" t="s">
         <v>30</v>
@@ -3441,10 +3438,10 @@
       </c>
       <c r="U18" s="91"/>
       <c r="V18" s="91" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="W18" s="91" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X18" s="95"/>
       <c r="Y18" s="24"/>
@@ -3459,26 +3456,26 @@
     </row>
     <row r="19" spans="1:33" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A19" s="91" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C19" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="D19" s="24" t="s">
         <v>281</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="E19" s="91" t="s">
         <v>282</v>
-      </c>
-      <c r="E19" s="91" t="s">
-        <v>283</v>
       </c>
       <c r="F19" s="91"/>
       <c r="G19" s="93" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H19" s="104" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I19" s="91" t="s">
         <v>30</v>
@@ -3497,7 +3494,7 @@
       </c>
       <c r="N19" s="92"/>
       <c r="O19" s="35" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="P19" s="35" t="s">
         <v>30</v>
@@ -3516,10 +3513,10 @@
       </c>
       <c r="U19" s="91"/>
       <c r="V19" s="91" t="s">
+        <v>283</v>
+      </c>
+      <c r="W19" s="91" t="s">
         <v>284</v>
-      </c>
-      <c r="W19" s="91" t="s">
-        <v>285</v>
       </c>
       <c r="X19" s="95"/>
       <c r="Y19" s="24"/>
@@ -3568,10 +3565,10 @@
       <c r="AG20" s="98"/>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A21" s="112" t="s">
+      <c r="A21" s="125" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="113"/>
+      <c r="B21" s="126"/>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A22" s="41" t="s">
@@ -3602,38 +3599,38 @@
         <v>94</v>
       </c>
       <c r="B25" s="43" t="s">
-        <v>154</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A26" s="41" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A28" s="112" t="s">
+      <c r="A28" s="125" t="s">
         <v>96</v>
       </c>
-      <c r="B28" s="113"/>
+      <c r="B28" s="126"/>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A29" s="41" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B29" s="42" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A30" s="41" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B30" s="42" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.35">
@@ -3650,34 +3647,28 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="110" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B33" s="111" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C33" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="110" t="s">
+        <v>302</v>
+      </c>
+      <c r="B34" s="42" t="s">
         <v>303</v>
       </c>
-      <c r="B34" s="42" t="s">
-        <v>304</v>
-      </c>
       <c r="C34" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="W2:AE2"/>
-    <mergeCell ref="H3:M3"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="X3:AD3"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="V9:V10"/>
@@ -3691,6 +3682,12 @@
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="W2:AE2"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="X3:AD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3730,73 +3727,73 @@
         <v>108</v>
       </c>
       <c r="B1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" t="s">
         <v>223</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>224</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>225</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>226</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>227</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>228</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>229</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>230</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>231</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>232</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>233</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>234</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>235</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>236</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>237</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>238</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>239</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>240</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>241</v>
-      </c>
-      <c r="U1" t="s">
-        <v>242</v>
       </c>
       <c r="V1" t="s">
         <v>21</v>
       </c>
       <c r="W1" t="s">
+        <v>242</v>
+      </c>
+      <c r="X1" t="s">
         <v>243</v>
-      </c>
-      <c r="X1" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
@@ -3807,19 +3804,19 @@
         <v>93</v>
       </c>
       <c r="C2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F2" t="s">
         <v>245</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J2" t="s">
         <v>246</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>247</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>248</v>
-      </c>
-      <c r="L2" t="s">
-        <v>249</v>
       </c>
       <c r="M2" t="s">
         <v>29</v>
@@ -3831,28 +3828,28 @@
         <v>29</v>
       </c>
       <c r="P2" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q2" t="s">
         <v>250</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>251</v>
       </c>
       <c r="R2" t="b">
         <v>1</v>
       </c>
       <c r="S2" t="s">
+        <v>251</v>
+      </c>
+      <c r="T2" t="s">
         <v>252</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>253</v>
-      </c>
-      <c r="V2" t="s">
-        <v>254</v>
       </c>
       <c r="W2">
         <v>1</v>
       </c>
       <c r="X2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
@@ -3863,19 +3860,19 @@
         <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J3" t="s">
+        <v>247</v>
+      </c>
+      <c r="K3" t="s">
+        <v>247</v>
+      </c>
+      <c r="L3" t="s">
         <v>248</v>
-      </c>
-      <c r="K3" t="s">
-        <v>248</v>
-      </c>
-      <c r="L3" t="s">
-        <v>249</v>
       </c>
       <c r="M3" t="s">
         <v>29</v>
@@ -3887,28 +3884,28 @@
         <v>29</v>
       </c>
       <c r="P3" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q3" t="s">
         <v>250</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>251</v>
       </c>
       <c r="R3" t="b">
         <v>1</v>
       </c>
       <c r="S3" t="s">
+        <v>251</v>
+      </c>
+      <c r="T3" t="s">
         <v>252</v>
       </c>
-      <c r="T3" t="s">
+      <c r="V3" t="s">
         <v>253</v>
-      </c>
-      <c r="V3" t="s">
-        <v>254</v>
       </c>
       <c r="W3">
         <v>1</v>
       </c>
       <c r="X3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.35">
@@ -3919,22 +3916,22 @@
         <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F4" t="s">
+        <v>256</v>
+      </c>
+      <c r="J4" t="s">
+        <v>246</v>
+      </c>
+      <c r="K4" t="s">
+        <v>246</v>
+      </c>
+      <c r="L4" t="s">
+        <v>248</v>
+      </c>
+      <c r="M4" t="s">
         <v>257</v>
-      </c>
-      <c r="J4" t="s">
-        <v>247</v>
-      </c>
-      <c r="K4" t="s">
-        <v>247</v>
-      </c>
-      <c r="L4" t="s">
-        <v>249</v>
-      </c>
-      <c r="M4" t="s">
-        <v>258</v>
       </c>
       <c r="N4" t="s">
         <v>29</v>
@@ -3943,28 +3940,28 @@
         <v>29</v>
       </c>
       <c r="P4" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q4" t="s">
         <v>250</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>251</v>
       </c>
       <c r="R4" t="b">
         <v>1</v>
       </c>
       <c r="S4" t="s">
+        <v>251</v>
+      </c>
+      <c r="T4" t="s">
         <v>252</v>
       </c>
-      <c r="T4" t="s">
+      <c r="V4" t="s">
         <v>253</v>
-      </c>
-      <c r="V4" t="s">
-        <v>254</v>
       </c>
       <c r="W4">
         <v>1</v>
       </c>
       <c r="X4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
@@ -3975,22 +3972,22 @@
         <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N5" t="s">
         <v>29</v>
@@ -3999,146 +3996,146 @@
         <v>29</v>
       </c>
       <c r="P5" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q5" t="s">
         <v>250</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>251</v>
       </c>
       <c r="R5" t="b">
         <v>1</v>
       </c>
       <c r="S5" t="s">
+        <v>251</v>
+      </c>
+      <c r="T5" t="s">
         <v>252</v>
       </c>
-      <c r="T5" t="s">
+      <c r="V5" t="s">
         <v>253</v>
-      </c>
-      <c r="V5" t="s">
-        <v>254</v>
       </c>
       <c r="W5">
         <v>1</v>
       </c>
       <c r="X5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" s="42" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D6" t="s">
+        <v>294</v>
+      </c>
+      <c r="E6" t="s">
         <v>295</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>296</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
+        <v>293</v>
+      </c>
+      <c r="J6" t="s">
         <v>297</v>
       </c>
-      <c r="G6" t="s">
-        <v>294</v>
-      </c>
-      <c r="J6" t="s">
-        <v>298</v>
-      </c>
       <c r="K6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N6" t="s">
         <v>29</v>
       </c>
       <c r="O6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="R6" t="b">
         <v>1</v>
       </c>
       <c r="S6" t="s">
+        <v>251</v>
+      </c>
+      <c r="T6" t="s">
         <v>252</v>
       </c>
-      <c r="T6" t="s">
+      <c r="V6" t="s">
         <v>253</v>
-      </c>
-      <c r="V6" t="s">
-        <v>254</v>
       </c>
       <c r="W6">
         <v>1</v>
       </c>
       <c r="X6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" s="42" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D7" t="s">
+        <v>294</v>
+      </c>
+      <c r="E7" t="s">
         <v>295</v>
       </c>
-      <c r="E7" t="s">
-        <v>296</v>
-      </c>
       <c r="F7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N7" t="s">
         <v>29</v>
       </c>
       <c r="O7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="R7" t="b">
         <v>1</v>
       </c>
       <c r="S7" t="s">
+        <v>251</v>
+      </c>
+      <c r="T7" t="s">
         <v>252</v>
       </c>
-      <c r="T7" t="s">
+      <c r="V7" t="s">
         <v>253</v>
-      </c>
-      <c r="V7" t="s">
-        <v>254</v>
       </c>
       <c r="W7">
         <v>1</v>
       </c>
       <c r="X7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -4164,19 +4161,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" t="s">
         <v>157</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>158</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>159</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>160</v>
-      </c>
-      <c r="E1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -4187,7 +4184,7 @@
         <v>112</v>
       </c>
       <c r="C2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D2" t="s">
         <v>109</v>
@@ -4204,7 +4201,7 @@
         <v>112</v>
       </c>
       <c r="C3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D3" t="s">
         <v>109</v>
@@ -4218,10 +4215,10 @@
         <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D4" t="s">
         <v>109</v>
@@ -4235,10 +4232,10 @@
         <v>93</v>
       </c>
       <c r="B5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D5" t="s">
         <v>109</v>
@@ -4255,7 +4252,7 @@
         <v>112</v>
       </c>
       <c r="C6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -4272,7 +4269,7 @@
         <v>112</v>
       </c>
       <c r="C7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D7" t="s">
         <v>109</v>
@@ -4289,7 +4286,7 @@
         <v>115</v>
       </c>
       <c r="C8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D8" t="s">
         <v>109</v>
@@ -4306,7 +4303,7 @@
         <v>117</v>
       </c>
       <c r="C9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D9" t="s">
         <v>109</v>
@@ -4323,7 +4320,7 @@
         <v>119</v>
       </c>
       <c r="C10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D10" t="s">
         <v>109</v>
@@ -4340,7 +4337,7 @@
         <v>119</v>
       </c>
       <c r="C11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D11" t="s">
         <v>109</v>
@@ -4357,7 +4354,7 @@
         <v>115</v>
       </c>
       <c r="C12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -4374,7 +4371,7 @@
         <v>115</v>
       </c>
       <c r="C13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D13" t="s">
         <v>109</v>
@@ -4388,10 +4385,10 @@
         <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D14" t="s">
         <v>109</v>
@@ -4408,7 +4405,7 @@
         <v>112</v>
       </c>
       <c r="C15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D15" t="s">
         <v>109</v>
@@ -4425,7 +4422,7 @@
         <v>117</v>
       </c>
       <c r="C16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D16" t="s">
         <v>109</v>
@@ -4442,7 +4439,7 @@
         <v>115</v>
       </c>
       <c r="C17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D17" t="s">
         <v>109</v>
@@ -4459,7 +4456,7 @@
         <v>119</v>
       </c>
       <c r="C18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -4476,7 +4473,7 @@
         <v>115</v>
       </c>
       <c r="C19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D19" t="s">
         <v>109</v>
@@ -4487,591 +4484,591 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B20" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" t="s">
         <v>162</v>
-      </c>
-      <c r="C20" t="s">
-        <v>162</v>
-      </c>
-      <c r="D20" t="s">
-        <v>109</v>
-      </c>
-      <c r="E20" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D21" t="s">
         <v>109</v>
       </c>
       <c r="E21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D22" t="s">
         <v>109</v>
       </c>
       <c r="E22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
       </c>
       <c r="E23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D24" t="s">
         <v>109</v>
       </c>
       <c r="E24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D25" t="s">
         <v>109</v>
       </c>
       <c r="E25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D26" t="s">
         <v>109</v>
       </c>
       <c r="E26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D27" t="s">
         <v>109</v>
       </c>
       <c r="E27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D28" t="s">
         <v>109</v>
       </c>
       <c r="E28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D29" t="s">
         <v>109</v>
       </c>
       <c r="E29" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D30" t="s">
         <v>109</v>
       </c>
       <c r="E30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D31" t="s">
         <v>109</v>
       </c>
       <c r="E31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D32" t="s">
         <v>109</v>
       </c>
       <c r="E32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D33" t="s">
         <v>109</v>
       </c>
       <c r="E33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D34" t="s">
         <v>109</v>
       </c>
       <c r="E34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D35" t="s">
         <v>109</v>
       </c>
       <c r="E35" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D36" t="s">
         <v>109</v>
       </c>
       <c r="E36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B37" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C37" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D37" t="s">
         <v>109</v>
       </c>
       <c r="E37" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D38" t="s">
         <v>109</v>
       </c>
       <c r="E38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D39" t="s">
         <v>109</v>
       </c>
       <c r="E39" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D40" t="s">
         <v>109</v>
       </c>
       <c r="E40" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B41" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C41" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D41" t="s">
         <v>109</v>
       </c>
       <c r="E41" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D42" t="s">
         <v>109</v>
       </c>
       <c r="E42" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D43" t="s">
         <v>109</v>
       </c>
       <c r="E43" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B44" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C44" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D44" t="s">
         <v>109</v>
       </c>
       <c r="E44" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B45" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C45" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D45" t="s">
         <v>109</v>
       </c>
       <c r="E45" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D46" t="s">
         <v>109</v>
       </c>
       <c r="E46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B47" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C47" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D47" t="s">
         <v>109</v>
       </c>
       <c r="E47" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B48" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C48" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D48" t="s">
         <v>109</v>
       </c>
       <c r="E48" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B49" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C49" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D49" t="s">
         <v>109</v>
       </c>
       <c r="E49" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B50" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C50" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D50" t="s">
         <v>109</v>
       </c>
       <c r="E50" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B51" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C51" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D51" t="s">
         <v>109</v>
       </c>
       <c r="E51" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D52" t="s">
         <v>109</v>
       </c>
       <c r="E52" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B53" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C53" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D53" t="s">
         <v>109</v>
       </c>
       <c r="E53" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B54" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C54" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D54" t="s">
         <v>109</v>
@@ -5082,574 +5079,574 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B55" t="s">
+        <v>196</v>
+      </c>
+      <c r="C55" t="s">
+        <v>196</v>
+      </c>
+      <c r="D55" t="s">
+        <v>109</v>
+      </c>
+      <c r="E55" t="s">
         <v>197</v>
-      </c>
-      <c r="C55" t="s">
-        <v>197</v>
-      </c>
-      <c r="D55" t="s">
-        <v>109</v>
-      </c>
-      <c r="E55" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B56" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C56" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D56" t="s">
         <v>109</v>
       </c>
       <c r="E56" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B57" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C57" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D57" t="s">
         <v>109</v>
       </c>
       <c r="E57" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B58" t="s">
+        <v>200</v>
+      </c>
+      <c r="C58" t="s">
+        <v>200</v>
+      </c>
+      <c r="D58" t="s">
         <v>201</v>
       </c>
-      <c r="C58" t="s">
-        <v>201</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>202</v>
-      </c>
-      <c r="E58" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B59" t="s">
+        <v>203</v>
+      </c>
+      <c r="C59" t="s">
+        <v>203</v>
+      </c>
+      <c r="D59" t="s">
+        <v>109</v>
+      </c>
+      <c r="E59" t="s">
         <v>204</v>
-      </c>
-      <c r="C59" t="s">
-        <v>204</v>
-      </c>
-      <c r="D59" t="s">
-        <v>109</v>
-      </c>
-      <c r="E59" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B60" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C60" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D60" t="s">
         <v>109</v>
       </c>
       <c r="E60" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B61" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C61" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D61" t="s">
         <v>109</v>
       </c>
       <c r="E61" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B62" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C62" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D62" t="s">
         <v>109</v>
       </c>
       <c r="E62" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B63" t="s">
+        <v>208</v>
+      </c>
+      <c r="C63" t="s">
         <v>209</v>
-      </c>
-      <c r="C63" t="s">
-        <v>210</v>
       </c>
       <c r="D63" t="s">
         <v>122</v>
       </c>
       <c r="E63" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B64" t="s">
+        <v>161</v>
+      </c>
+      <c r="C64" t="s">
+        <v>161</v>
+      </c>
+      <c r="D64" t="s">
+        <v>109</v>
+      </c>
+      <c r="E64" t="s">
         <v>162</v>
-      </c>
-      <c r="C64" t="s">
-        <v>162</v>
-      </c>
-      <c r="D64" t="s">
-        <v>109</v>
-      </c>
-      <c r="E64" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B65" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C65" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D65" t="s">
         <v>109</v>
       </c>
       <c r="E65" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B66" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C66" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D66" t="s">
         <v>109</v>
       </c>
       <c r="E66" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B67" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C67" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D67" t="s">
         <v>109</v>
       </c>
       <c r="E67" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B68" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C68" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D68" t="s">
         <v>109</v>
       </c>
       <c r="E68" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B69" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C69" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D69" t="s">
         <v>109</v>
       </c>
       <c r="E69" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B70" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C70" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D70" t="s">
         <v>109</v>
       </c>
       <c r="E70" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B71" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C71" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D71" t="s">
         <v>109</v>
       </c>
       <c r="E71" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B72" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C72" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D72" t="s">
         <v>109</v>
       </c>
       <c r="E72" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D73" t="s">
         <v>109</v>
       </c>
       <c r="E73" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B74" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C74" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D74" t="s">
         <v>109</v>
       </c>
       <c r="E74" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B75" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C75" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D75" t="s">
         <v>109</v>
       </c>
       <c r="E75" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B76" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C76" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D76" t="s">
         <v>109</v>
       </c>
       <c r="E76" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B77" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C77" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D77" t="s">
         <v>109</v>
       </c>
       <c r="E77" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B78" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C78" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D78" t="s">
         <v>109</v>
       </c>
       <c r="E78" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B79" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C79" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D79" t="s">
         <v>109</v>
       </c>
       <c r="E79" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
+        <v>211</v>
+      </c>
+      <c r="B80" t="s">
+        <v>161</v>
+      </c>
+      <c r="C80" t="s">
+        <v>161</v>
+      </c>
+      <c r="D80" t="s">
+        <v>109</v>
+      </c>
+      <c r="E80" t="s">
         <v>212</v>
-      </c>
-      <c r="B80" t="s">
-        <v>162</v>
-      </c>
-      <c r="C80" t="s">
-        <v>162</v>
-      </c>
-      <c r="D80" t="s">
-        <v>109</v>
-      </c>
-      <c r="E80" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B81" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C81" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D81" t="s">
         <v>109</v>
       </c>
       <c r="E81" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B82" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C82" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D82" t="s">
         <v>109</v>
       </c>
       <c r="E82" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B83" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C83" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D83" t="s">
         <v>109</v>
       </c>
       <c r="E83" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B84" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C84" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D84" t="s">
         <v>109</v>
       </c>
       <c r="E84" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B85" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C85" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D85" t="s">
         <v>109</v>
       </c>
       <c r="E85" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B86" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C86" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D86" t="s">
         <v>109</v>
       </c>
       <c r="E86" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B87" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C87" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D87" t="s">
         <v>109</v>
       </c>
       <c r="E87" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B88" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C88" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D88" t="s">
         <v>109</v>
@@ -5660,206 +5657,206 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B89" t="s">
+        <v>200</v>
+      </c>
+      <c r="C89" t="s">
+        <v>200</v>
+      </c>
+      <c r="D89" t="s">
         <v>201</v>
       </c>
-      <c r="C89" t="s">
-        <v>201</v>
-      </c>
-      <c r="D89" t="s">
-        <v>202</v>
-      </c>
       <c r="E89" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B90" t="s">
+        <v>203</v>
+      </c>
+      <c r="C90" t="s">
+        <v>203</v>
+      </c>
+      <c r="D90" t="s">
+        <v>109</v>
+      </c>
+      <c r="E90" t="s">
         <v>204</v>
-      </c>
-      <c r="C90" t="s">
-        <v>204</v>
-      </c>
-      <c r="D90" t="s">
-        <v>109</v>
-      </c>
-      <c r="E90" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B91" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C91" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D91" t="s">
         <v>109</v>
       </c>
       <c r="E91" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B92" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C92" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D92" t="s">
         <v>109</v>
       </c>
       <c r="E92" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B93" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C93" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D93" t="s">
         <v>109</v>
       </c>
       <c r="E93" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B94" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C94" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D94" t="s">
         <v>109</v>
       </c>
       <c r="E94" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="42" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B95" t="s">
+        <v>299</v>
+      </c>
+      <c r="C95" t="s">
+        <v>299</v>
+      </c>
+      <c r="D95" t="s">
         <v>300</v>
       </c>
-      <c r="C95" t="s">
-        <v>300</v>
-      </c>
-      <c r="D95" t="s">
+      <c r="E95" t="s">
         <v>301</v>
-      </c>
-      <c r="E95" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="42" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B96" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C96" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D96" t="s">
+        <v>302</v>
+      </c>
+      <c r="E96" t="s">
         <v>303</v>
-      </c>
-      <c r="E96" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="42" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B97" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C97" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D97" t="s">
+        <v>304</v>
+      </c>
+      <c r="E97" t="s">
         <v>305</v>
-      </c>
-      <c r="E97" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="42" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B98" t="s">
+        <v>299</v>
+      </c>
+      <c r="C98" t="s">
+        <v>299</v>
+      </c>
+      <c r="D98" t="s">
         <v>300</v>
       </c>
-      <c r="C98" t="s">
-        <v>300</v>
-      </c>
-      <c r="D98" t="s">
-        <v>301</v>
-      </c>
       <c r="E98" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="42" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B99" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C99" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D99" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E99" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="42" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B100" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C100" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D100" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E100" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -5892,7 +5889,7 @@
   <sheetData>
     <row r="3" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.35">
@@ -6758,21 +6755,21 @@
         <v>47</v>
       </c>
       <c r="M28" s="105" t="s">
+        <v>316</v>
+      </c>
+      <c r="N28" s="105" t="s">
         <v>317</v>
       </c>
-      <c r="N28" s="105" t="s">
+      <c r="O28" s="105" t="s">
         <v>318</v>
-      </c>
-      <c r="O28" s="105" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B29" s="106" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C29" s="106" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D29" s="106" t="s">
         <v>71</v>
@@ -6781,10 +6778,10 @@
         <v>1</v>
       </c>
       <c r="F29" s="106" t="s">
+        <v>320</v>
+      </c>
+      <c r="G29" s="106" t="s">
         <v>321</v>
-      </c>
-      <c r="G29" s="106" t="s">
-        <v>322</v>
       </c>
       <c r="H29" s="106" t="s">
         <v>59</v>
@@ -6802,21 +6799,21 @@
         <v>0</v>
       </c>
       <c r="M29" s="106" t="s">
+        <v>323</v>
+      </c>
+      <c r="N29" s="106" t="s">
         <v>324</v>
       </c>
-      <c r="N29" s="106" t="s">
-        <v>325</v>
-      </c>
       <c r="O29" s="107" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B30" s="106" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C30" s="106" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D30" s="106" t="s">
         <v>79</v>
@@ -6825,10 +6822,10 @@
         <v>1</v>
       </c>
       <c r="F30" s="106" t="s">
+        <v>320</v>
+      </c>
+      <c r="G30" s="106" t="s">
         <v>321</v>
-      </c>
-      <c r="G30" s="106" t="s">
-        <v>322</v>
       </c>
       <c r="H30" s="106" t="s">
         <v>141</v>
@@ -6846,21 +6843,21 @@
         <v>0</v>
       </c>
       <c r="M30" s="106" t="s">
+        <v>325</v>
+      </c>
+      <c r="N30" s="106" t="s">
         <v>326</v>
       </c>
-      <c r="N30" s="106" t="s">
-        <v>327</v>
-      </c>
       <c r="O30" s="107" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B31" s="107" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C31" s="107" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D31" s="107" t="s">
         <v>50</v>
@@ -6869,10 +6866,10 @@
         <v>1</v>
       </c>
       <c r="F31" s="107" t="s">
+        <v>320</v>
+      </c>
+      <c r="G31" s="107" t="s">
         <v>321</v>
-      </c>
-      <c r="G31" s="107" t="s">
-        <v>322</v>
       </c>
       <c r="H31" s="107" t="s">
         <v>141</v>
@@ -6890,21 +6887,21 @@
         <v>0</v>
       </c>
       <c r="M31" s="107" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="N31" s="107" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O31" s="107" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B32" s="107" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C32" s="107" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D32" s="107" t="s">
         <v>55</v>
@@ -6913,10 +6910,10 @@
         <v>1</v>
       </c>
       <c r="F32" s="107" t="s">
+        <v>320</v>
+      </c>
+      <c r="G32" s="107" t="s">
         <v>321</v>
-      </c>
-      <c r="G32" s="107" t="s">
-        <v>322</v>
       </c>
       <c r="H32" s="107" t="s">
         <v>141</v>
@@ -6934,21 +6931,21 @@
         <v>0</v>
       </c>
       <c r="M32" s="107" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="N32" s="107" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O32" s="107" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B33" s="107" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C33" s="107" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D33" s="107" t="s">
         <v>58</v>
@@ -6957,10 +6954,10 @@
         <v>1</v>
       </c>
       <c r="F33" s="107" t="s">
+        <v>320</v>
+      </c>
+      <c r="G33" s="107" t="s">
         <v>321</v>
-      </c>
-      <c r="G33" s="107" t="s">
-        <v>322</v>
       </c>
       <c r="H33" s="107" t="s">
         <v>141</v>
@@ -6978,21 +6975,21 @@
         <v>0</v>
       </c>
       <c r="M33" s="107" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N33" s="107" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O33" s="107" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B34" s="107" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C34" s="107" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D34" s="107" t="s">
         <v>62</v>
@@ -7001,10 +6998,10 @@
         <v>1</v>
       </c>
       <c r="F34" s="107" t="s">
+        <v>320</v>
+      </c>
+      <c r="G34" s="107" t="s">
         <v>321</v>
-      </c>
-      <c r="G34" s="107" t="s">
-        <v>322</v>
       </c>
       <c r="H34" s="107" t="s">
         <v>63</v>
@@ -7022,21 +7019,21 @@
         <v>0</v>
       </c>
       <c r="M34" s="107" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N34" s="107" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O34" s="107" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B35" s="107" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C35" s="107" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D35" s="107" t="s">
         <v>140</v>
@@ -7045,10 +7042,10 @@
         <v>1</v>
       </c>
       <c r="F35" s="107" t="s">
+        <v>320</v>
+      </c>
+      <c r="G35" s="107" t="s">
         <v>321</v>
-      </c>
-      <c r="G35" s="107" t="s">
-        <v>322</v>
       </c>
       <c r="H35" s="107" t="s">
         <v>63</v>
@@ -7066,21 +7063,21 @@
         <v>0</v>
       </c>
       <c r="M35" s="107" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N35" s="107" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O35" s="107" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B36" s="107" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C36" s="107" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D36" s="107" t="s">
         <v>143</v>
@@ -7089,10 +7086,10 @@
         <v>1</v>
       </c>
       <c r="F36" s="107" t="s">
+        <v>320</v>
+      </c>
+      <c r="G36" s="107" t="s">
         <v>321</v>
-      </c>
-      <c r="G36" s="107" t="s">
-        <v>322</v>
       </c>
       <c r="H36" s="107" t="s">
         <v>63</v>
@@ -7110,21 +7107,21 @@
         <v>0</v>
       </c>
       <c r="M36" s="107" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N36" s="107" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O36" s="107" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B37" s="107" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C37" s="107" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D37" s="107" t="s">
         <v>145</v>
@@ -7133,10 +7130,10 @@
         <v>1</v>
       </c>
       <c r="F37" s="107" t="s">
+        <v>320</v>
+      </c>
+      <c r="G37" s="107" t="s">
         <v>321</v>
-      </c>
-      <c r="G37" s="107" t="s">
-        <v>322</v>
       </c>
       <c r="H37" s="107" t="s">
         <v>66</v>
@@ -7154,21 +7151,21 @@
         <v>0</v>
       </c>
       <c r="M37" s="107" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="N37" s="107" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O37" s="107" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B38" s="107" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C38" s="107" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D38" s="107" t="s">
         <v>147</v>
@@ -7177,10 +7174,10 @@
         <v>1</v>
       </c>
       <c r="F38" s="107" t="s">
+        <v>320</v>
+      </c>
+      <c r="G38" s="107" t="s">
         <v>321</v>
-      </c>
-      <c r="G38" s="107" t="s">
-        <v>322</v>
       </c>
       <c r="H38" s="107" t="s">
         <v>66</v>
@@ -7198,21 +7195,21 @@
         <v>0</v>
       </c>
       <c r="M38" s="107" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N38" s="107" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O38" s="107" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B39" s="107" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C39" s="107" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D39" s="107" t="s">
         <v>149</v>
@@ -7221,10 +7218,10 @@
         <v>1</v>
       </c>
       <c r="F39" s="107" t="s">
+        <v>320</v>
+      </c>
+      <c r="G39" s="107" t="s">
         <v>321</v>
-      </c>
-      <c r="G39" s="107" t="s">
-        <v>322</v>
       </c>
       <c r="H39" s="107" t="s">
         <v>66</v>
@@ -7242,21 +7239,21 @@
         <v>0</v>
       </c>
       <c r="M39" s="107" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="N39" s="107" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O39" s="107" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B40" s="107" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C40" s="107" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D40" s="107" t="s">
         <v>151</v>
@@ -7265,10 +7262,10 @@
         <v>1</v>
       </c>
       <c r="F40" s="107" t="s">
+        <v>320</v>
+      </c>
+      <c r="G40" s="107" t="s">
         <v>321</v>
-      </c>
-      <c r="G40" s="107" t="s">
-        <v>322</v>
       </c>
       <c r="H40" s="107" t="s">
         <v>66</v>
@@ -7286,13 +7283,13 @@
         <v>0</v>
       </c>
       <c r="M40" s="107" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N40" s="107" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O40" s="107" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.35">
@@ -7301,7 +7298,7 @@
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B42" s="108" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>

--- a/Test Data/Salesforce - Test Scenarios_V3.xlsx
+++ b/Test Data/Salesforce - Test Scenarios_V3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AnithaB\git\Saviynt\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CC8145-477E-4E25-B625-6818BA40B2D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DDA5F2-EBD2-4DE5-B024-E935B5E22B95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12420" windowHeight="2080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="365">
   <si>
     <t>SAVIYNT - User Testing Scenario's (Business)</t>
   </si>
@@ -1160,6 +1160,24 @@
   </si>
   <si>
     <t>RGTSU45</t>
+  </si>
+  <si>
+    <t>NewRole1</t>
+  </si>
+  <si>
+    <t>UQU|UQG FRA Test Role</t>
+  </si>
+  <si>
+    <t>NewRole2</t>
+  </si>
+  <si>
+    <t>UQU|UQG ROT Test Role</t>
+  </si>
+  <si>
+    <t>Tasks get created - SCP - UQG FRA,SCP - UQG ROT,SCP - UQU FRA</t>
+  </si>
+  <si>
+    <t>Provided by satish jogi</t>
   </si>
 </sst>
 </file>
@@ -2389,8 +2407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="D19" zoomScale="70" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3541,10 +3559,11 @@
       <c r="I20" s="97"/>
       <c r="J20" s="97"/>
       <c r="K20" s="97"/>
-      <c r="L20" s="97"/>
       <c r="M20" s="97"/>
       <c r="N20" s="98"/>
-      <c r="O20" s="98"/>
+      <c r="O20" s="98" t="s">
+        <v>363</v>
+      </c>
       <c r="P20" s="97"/>
       <c r="Q20" s="101"/>
       <c r="R20" s="97"/>
@@ -3552,7 +3571,9 @@
       <c r="T20" s="97"/>
       <c r="U20" s="97"/>
       <c r="V20" s="97"/>
-      <c r="W20" s="97"/>
+      <c r="W20" s="103" t="s">
+        <v>364</v>
+      </c>
       <c r="X20" s="98"/>
       <c r="Y20" s="98"/>
       <c r="Z20" s="98"/>
@@ -3634,16 +3655,28 @@
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A31" s="41"/>
-      <c r="B31" s="42"/>
+      <c r="A31" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="B31" s="42" t="s">
+        <v>360</v>
+      </c>
       <c r="C31" s="103"/>
-      <c r="D31" s="103"/>
+      <c r="D31" s="103" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A32" s="41"/>
-      <c r="B32" s="43"/>
+      <c r="A32" s="41" t="s">
+        <v>361</v>
+      </c>
+      <c r="B32" s="43" t="s">
+        <v>362</v>
+      </c>
       <c r="C32" s="103"/>
-      <c r="D32" s="103"/>
+      <c r="D32" s="103" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="110" t="s">

--- a/Test Data/Salesforce - Test Scenarios_V3.xlsx
+++ b/Test Data/Salesforce - Test Scenarios_V3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AnithaB\git\Saviynt\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DDA5F2-EBD2-4DE5-B024-E935B5E22B95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFEA3ED-7BA2-4C1E-A278-7FCEBD4C8BDB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12420" windowHeight="2080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User Testing Scenario's " sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="366">
   <si>
     <t>SAVIYNT - User Testing Scenario's (Business)</t>
   </si>
@@ -1178,6 +1178,9 @@
   </si>
   <si>
     <t>Provided by satish jogi</t>
+  </si>
+  <si>
+    <t>Systems</t>
   </si>
 </sst>
 </file>
@@ -1982,6 +1985,48 @@
     <xf numFmtId="49" fontId="0" fillId="13" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2020,48 +2065,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2405,10 +2408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG34"/>
+  <dimension ref="A1:AG35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D19" zoomScale="70" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W20" sqref="W20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2435,12 +2438,12 @@
   <sheetData>
     <row r="1" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
-      <c r="B1" s="112" t="s">
+      <c r="B1" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="113"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="127"/>
       <c r="F1" s="38"/>
       <c r="G1" s="25"/>
       <c r="H1" s="25"/>
@@ -2493,15 +2496,15 @@
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
       <c r="V2" s="4"/>
-      <c r="W2" s="114"/>
-      <c r="X2" s="115"/>
-      <c r="Y2" s="115"/>
-      <c r="Z2" s="115"/>
-      <c r="AA2" s="115"/>
-      <c r="AB2" s="115"/>
-      <c r="AC2" s="115"/>
-      <c r="AD2" s="115"/>
-      <c r="AE2" s="116"/>
+      <c r="W2" s="128"/>
+      <c r="X2" s="129"/>
+      <c r="Y2" s="129"/>
+      <c r="Z2" s="129"/>
+      <c r="AA2" s="129"/>
+      <c r="AB2" s="129"/>
+      <c r="AC2" s="129"/>
+      <c r="AD2" s="129"/>
+      <c r="AE2" s="130"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
     </row>
@@ -2513,23 +2516,23 @@
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="26"/>
-      <c r="H3" s="117" t="s">
+      <c r="H3" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
-      <c r="L3" s="118"/>
-      <c r="M3" s="119"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="132"/>
+      <c r="K3" s="132"/>
+      <c r="L3" s="132"/>
+      <c r="M3" s="133"/>
       <c r="N3" s="34"/>
       <c r="O3" s="39"/>
-      <c r="P3" s="120" t="s">
+      <c r="P3" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="121"/>
-      <c r="R3" s="121"/>
-      <c r="S3" s="121"/>
-      <c r="T3" s="122" t="s">
+      <c r="Q3" s="135"/>
+      <c r="R3" s="135"/>
+      <c r="S3" s="135"/>
+      <c r="T3" s="136" t="s">
         <v>3</v>
       </c>
       <c r="U3" s="37"/>
@@ -2539,15 +2542,15 @@
       <c r="W3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="X3" s="123" t="s">
+      <c r="X3" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="Y3" s="124"/>
-      <c r="Z3" s="124"/>
-      <c r="AA3" s="124"/>
-      <c r="AB3" s="124"/>
-      <c r="AC3" s="124"/>
-      <c r="AD3" s="124"/>
+      <c r="Y3" s="138"/>
+      <c r="Z3" s="138"/>
+      <c r="AA3" s="138"/>
+      <c r="AB3" s="138"/>
+      <c r="AC3" s="138"/>
+      <c r="AD3" s="138"/>
       <c r="AE3" s="14"/>
       <c r="AF3" s="14" t="s">
         <v>7</v>
@@ -2610,7 +2613,7 @@
       <c r="S4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="T4" s="122"/>
+      <c r="T4" s="136"/>
       <c r="U4" s="37"/>
       <c r="V4" s="13"/>
       <c r="W4" s="8"/>
@@ -2756,16 +2759,16 @@
       <c r="AG6" s="57"/>
     </row>
     <row r="7" spans="1:33" s="58" customFormat="1" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="129" t="s">
+      <c r="A7" s="116" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="130" t="s">
+      <c r="B7" s="117" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="130" t="s">
+      <c r="C7" s="117" t="s">
         <v>99</v>
       </c>
-      <c r="D7" s="131" t="s">
+      <c r="D7" s="118" t="s">
         <v>85</v>
       </c>
       <c r="E7" s="59" t="s">
@@ -2794,7 +2797,7 @@
         <v>30</v>
       </c>
       <c r="N7" s="62"/>
-      <c r="O7" s="134" t="s">
+      <c r="O7" s="121" t="s">
         <v>130</v>
       </c>
       <c r="P7" s="60" t="s">
@@ -2813,7 +2816,7 @@
         <v>30</v>
       </c>
       <c r="U7" s="60"/>
-      <c r="V7" s="132" t="s">
+      <c r="V7" s="119" t="s">
         <v>33</v>
       </c>
       <c r="W7" s="63" t="s">
@@ -2831,10 +2834,10 @@
       <c r="AG7" s="62"/>
     </row>
     <row r="8" spans="1:33" s="58" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="129"/>
-      <c r="B8" s="130"/>
-      <c r="C8" s="130"/>
-      <c r="D8" s="131"/>
+      <c r="A8" s="116"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="118"/>
       <c r="E8" s="59" t="s">
         <v>34</v>
       </c>
@@ -2857,7 +2860,7 @@
         <v>30</v>
       </c>
       <c r="N8" s="62"/>
-      <c r="O8" s="135"/>
+      <c r="O8" s="122"/>
       <c r="P8" s="60" t="s">
         <v>29</v>
       </c>
@@ -2868,7 +2871,7 @@
       <c r="S8" s="59"/>
       <c r="T8" s="60"/>
       <c r="U8" s="65"/>
-      <c r="V8" s="133"/>
+      <c r="V8" s="120"/>
       <c r="W8" s="63"/>
       <c r="X8" s="64"/>
       <c r="Y8" s="64"/>
@@ -2882,16 +2885,16 @@
       <c r="AG8" s="62"/>
     </row>
     <row r="9" spans="1:33" s="58" customFormat="1" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="136" t="s">
+      <c r="A9" s="123" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="137" t="s">
+      <c r="B9" s="124" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="137" t="s">
+      <c r="C9" s="124" t="s">
         <v>102</v>
       </c>
-      <c r="D9" s="138" t="s">
+      <c r="D9" s="125" t="s">
         <v>86</v>
       </c>
       <c r="E9" s="66" t="s">
@@ -2939,7 +2942,7 @@
         <v>30</v>
       </c>
       <c r="U9" s="69"/>
-      <c r="V9" s="127" t="s">
+      <c r="V9" s="114" t="s">
         <v>37</v>
       </c>
       <c r="W9" s="67" t="s">
@@ -2957,10 +2960,10 @@
       <c r="AG9" s="68"/>
     </row>
     <row r="10" spans="1:33" s="58" customFormat="1" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="136"/>
-      <c r="B10" s="137"/>
-      <c r="C10" s="137"/>
-      <c r="D10" s="138"/>
+      <c r="A10" s="123"/>
+      <c r="B10" s="124"/>
+      <c r="C10" s="124"/>
+      <c r="D10" s="125"/>
       <c r="E10" s="71" t="s">
         <v>37</v>
       </c>
@@ -3006,7 +3009,7 @@
         <v>30</v>
       </c>
       <c r="U10" s="74"/>
-      <c r="V10" s="128"/>
+      <c r="V10" s="115"/>
       <c r="W10" s="67" t="s">
         <v>31</v>
       </c>
@@ -3586,10 +3589,10 @@
       <c r="AG20" s="98"/>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A21" s="125" t="s">
+      <c r="A21" s="112" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="126"/>
+      <c r="B21" s="113"/>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A22" s="41" t="s">
@@ -3633,10 +3636,10 @@
     </row>
     <row r="27" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A28" s="125" t="s">
+      <c r="A28" s="112" t="s">
         <v>96</v>
       </c>
-      <c r="B28" s="126"/>
+      <c r="B28" s="113"/>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A29" s="41" t="s">
@@ -3678,7 +3681,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="110" t="s">
         <v>355</v>
       </c>
@@ -3689,7 +3692,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="110" t="s">
         <v>302</v>
       </c>
@@ -3700,8 +3703,31 @@
         <v>307</v>
       </c>
     </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="41" t="s">
+        <v>365</v>
+      </c>
+      <c r="B35" s="42" t="s">
+        <v>299</v>
+      </c>
+      <c r="C35" t="s">
+        <v>219</v>
+      </c>
+      <c r="D35" t="s">
+        <v>218</v>
+      </c>
+      <c r="E35" t="s">
+        <v>217</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="W2:AE2"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="X3:AD3"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="V9:V10"/>
@@ -3715,12 +3741,6 @@
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="W2:AE2"/>
-    <mergeCell ref="H3:M3"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="X3:AD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5894,7 +5914,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:E94" xr:uid="{00000000-0009-0000-0000-000002000000}">
-    <sortState ref="A2:E94">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E94">
       <sortCondition ref="A1:A94"/>
     </sortState>
   </autoFilter>
